--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.214</v>
+        <v>-0.144</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.91</v>
+        <v>29.232</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.104</v>
+        <v>-0.843</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.415</v>
+        <v>23.795</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.358</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.895</v>
+        <v>28.594</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.319126720757048</v>
+        <v>36.26051584616268</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.01428383697675</v>
+        <v>36.26051586936764</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.73111089761387</v>
+        <v>36.26051587680529</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.203262906796173</v>
+        <v>36.26051587426559</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.23289540756952</v>
+        <v>36.26051589991963</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.34247595885163</v>
+        <v>36.26051590814225</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.8898088912563</v>
+        <v>36.2605158799815</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.15658104353914</v>
+        <v>36.26051590243367</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.74986064643602</v>
+        <v>36.26051590963002</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.60558198308017</v>
+        <v>36.26051590451984</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.89186757425621</v>
+        <v>36.26051592883518</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.24208562026137</v>
+        <v>36.26051593714109</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.27366585682351</v>
+        <v>36.26051590255161</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.61927355707069</v>
+        <v>36.26051593786426</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.28489012953136</v>
+        <v>36.26051594918266</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.67727532228319</v>
+        <v>36.26051589004334</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.4414365384668</v>
+        <v>36.26051591493148</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.4996376373457</v>
+        <v>36.2605159230004</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.15099043193768</v>
+        <v>36.26051592067904</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.36220308952743</v>
+        <v>36.26051594819391</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.84914932010663</v>
+        <v>36.26051595711444</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.61741227629025</v>
+        <v>36.2605159278799</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.91755149586734</v>
+        <v>36.26051595196064</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.84071095697456</v>
+        <v>36.26051595976779</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.43737098304295</v>
+        <v>36.26051595306956</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41.82198553848748</v>
+        <v>36.26051597922344</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46.6015759179754</v>
+        <v>36.26051598818425</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.12170696566983</v>
+        <v>36.2605159494495</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.09564680839101</v>
+        <v>36.26051598732356</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>49.28178130106243</v>
+        <v>36.26051599960262</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.85490255792979</v>
+        <v>36.26051595379216</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.56307541679677</v>
+        <v>36.26051597805711</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.6469342506145</v>
+        <v>36.26051598592274</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.95772371535432</v>
+        <v>36.26051598508861</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.10702312278687</v>
+        <v>36.26051601191452</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.62250150777803</v>
+        <v>36.2605160206103</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.87395158668921</v>
+        <v>36.26051599309531</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.12012161100391</v>
+        <v>36.26051601657307</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>47.06826112785877</v>
+        <v>36.26051602418354</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.70398319639155</v>
+        <v>36.26051601643157</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.05297390522887</v>
+        <v>36.26051604184207</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.91684563748258</v>
+        <v>36.26051605045839</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.68793684667531</v>
+        <v>36.26051601054433</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>56.57614967392276</v>
+        <v>36.26051604747004</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62.8013888325581</v>
+        <v>36.26051605943975</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.52945123370473</v>
+        <v>36.26051583315635</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.44731841523169</v>
+        <v>36.26051585659147</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.01388914804233</v>
+        <v>36.26051586384236</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.968328725961623</v>
+        <v>36.26051586016688</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.24426258086952</v>
+        <v>36.26051588607538</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.18769065431586</v>
+        <v>36.26051589409155</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.67576360439297</v>
+        <v>36.26051586573539</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.15797448548655</v>
+        <v>36.26051588841025</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.60593467183583</v>
+        <v>36.26051589542592</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.04636740047395</v>
+        <v>36.26051589009244</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.52141683409966</v>
+        <v>36.26051591452344</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.68652703072996</v>
+        <v>36.26051592259517</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.43670567811117</v>
+        <v>36.26051588805966</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.12176101981982</v>
+        <v>36.26051592372258</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.55848174458923</v>
+        <v>36.26051593475678</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>7.870729702068623</v>
+        <v>36.26051587529184</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.8689602635446</v>
+        <v>36.26051590040081</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.76050452268871</v>
+        <v>36.26051590826646</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.885630986196269</v>
+        <v>36.26051590479135</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.35571646797711</v>
+        <v>36.26051593255037</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.65837803384385</v>
+        <v>36.26051594124618</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.39240184349723</v>
+        <v>36.26051591184861</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.91897834714451</v>
+        <v>36.26051593614302</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.68096047910807</v>
+        <v>36.2605159437535</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.8860829718061</v>
+        <v>36.2605159369306</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>39.46703154925851</v>
+        <v>36.26051596317711</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.04270523269798</v>
+        <v>36.26051597189162</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.29819472971139</v>
+        <v>36.2605159333014</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.62891269945871</v>
+        <v>36.26051597151153</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>46.56114723541835</v>
+        <v>36.26051598348126</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>18.48992036260424</v>
+        <v>36.26051593953618</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.41780427834976</v>
+        <v>36.26051596402401</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.34730196475613</v>
+        <v>36.26051597168338</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.13899748958109</v>
+        <v>36.26051596986918</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.5312942883232</v>
+        <v>36.26051599694149</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.87608839653687</v>
+        <v>36.26051600540924</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.12508910336106</v>
+        <v>36.2605159777323</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.58381325751945</v>
+        <v>36.26051600142572</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.38267160839547</v>
+        <v>36.2605160088366</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39.69007563483254</v>
+        <v>36.26051600105608</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.21801835134617</v>
+        <v>36.26051602657228</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>57.89132675935699</v>
+        <v>36.26051603494669</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.42184894343536</v>
+        <v>36.2605159951991</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>54.64496465307315</v>
+        <v>36.26051603246398</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60.63503507443016</v>
+        <v>36.26051604411978</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.52945123370473</v>
+        <v>36.26051583315635</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>17.44731841523169</v>
+        <v>36.26051585659147</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.01388914804233</v>
+        <v>36.26051586384236</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.968328725961623</v>
+        <v>36.26051586016688</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19.24426258086952</v>
+        <v>36.26051588607538</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.18769065431586</v>
+        <v>36.26051589409155</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.67576360439297</v>
+        <v>36.26051586573539</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.15797448548655</v>
+        <v>36.26051588841025</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.60593467183583</v>
+        <v>36.26051589542592</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.04636740047395</v>
+        <v>36.26051589009244</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.52141683409966</v>
+        <v>36.26051591452344</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.68652703072996</v>
+        <v>36.26051592259517</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.43670567811117</v>
+        <v>36.26051588805966</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.12176101981982</v>
+        <v>36.26051592372258</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>39.55848174458923</v>
+        <v>36.26051593475678</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>7.870729702068623</v>
+        <v>36.26051587529184</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.8689602635446</v>
+        <v>36.26051590040081</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.76050452268871</v>
+        <v>36.26051590826646</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.885630986196269</v>
+        <v>36.26051590479135</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.35571646797711</v>
+        <v>36.26051593255037</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.65837803384385</v>
+        <v>36.26051594124618</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.39240184349723</v>
+        <v>36.26051591184861</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.91897834714451</v>
+        <v>36.26051593614302</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.68096047910807</v>
+        <v>36.2605159437535</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.8860829718061</v>
+        <v>36.2605159369306</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>39.46703154925851</v>
+        <v>36.26051596317711</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.04270523269798</v>
+        <v>36.26051597189162</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.29819472971139</v>
+        <v>36.2605159333014</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.62891269945871</v>
+        <v>36.26051597151153</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.56114723541835</v>
+        <v>36.26051598348126</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.48992036260424</v>
+        <v>36.26051593953618</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.41780427834976</v>
+        <v>36.26051596402401</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.34730196475613</v>
+        <v>36.26051597168338</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.13899748958109</v>
+        <v>36.26051596986918</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.5312942883232</v>
+        <v>36.26051599694149</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.87608839653687</v>
+        <v>36.26051600540924</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.12508910336106</v>
+        <v>36.2605159777323</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.58381325751945</v>
+        <v>36.26051600142572</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.38267160839547</v>
+        <v>36.2605160088366</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39.69007563483254</v>
+        <v>36.26051600105608</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.21801835134617</v>
+        <v>36.26051602657228</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.89132675935699</v>
+        <v>36.26051603494669</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.42184894343536</v>
+        <v>36.2605159951991</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.64496465307315</v>
+        <v>36.26051603246398</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60.63503507443016</v>
+        <v>36.26051604411978</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2.625190611808581</v>
+        <v>36.26051583922916</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.3595261989446</v>
+        <v>36.26051586255207</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.08721454136152</v>
+        <v>36.26051587000907</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.205937940239171</v>
+        <v>36.26051586702948</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.27885479358968</v>
+        <v>36.26051589281392</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.40044365031713</v>
+        <v>36.26051590105795</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.860566812922791</v>
+        <v>36.26051587267555</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.1651816937002</v>
+        <v>36.26051589524184</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.76895660999256</v>
+        <v>36.26051590245693</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.60691630772766</v>
+        <v>36.26051589741559</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.92514829775302</v>
+        <v>36.26051592184606</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.29029346877974</v>
+        <v>36.26051593017844</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.34525780632883</v>
+        <v>36.26051589563091</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>32.75056379136199</v>
+        <v>36.26051593112305</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.43275026193871</v>
+        <v>36.26051594247091</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.034708816603704</v>
+        <v>36.2605158832701</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>19.84460498200107</v>
+        <v>36.26051590828708</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>23.91731701507284</v>
+        <v>36.26051591637851</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.202751034325111</v>
+        <v>36.26051591362204</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.46449506620341</v>
+        <v>36.26051594127934</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.96748431466447</v>
+        <v>36.26051595022476</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.64349281568199</v>
+        <v>36.26051592076246</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.9878133954283</v>
+        <v>36.26051594496785</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.92499556649039</v>
+        <v>36.26051595279679</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.49886325835949</v>
+        <v>36.26051594616435</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.9225970073628</v>
+        <v>36.26051597244429</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>42.72130061611384</v>
+        <v>36.26051598143547</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.25082196540792</v>
+        <v>36.26051594271837</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.29444549285128</v>
+        <v>36.26051598078849</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>45.50271391356314</v>
+        <v>36.26051599310181</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.67331603619251</v>
+        <v>36.2605159479241</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.4289289273013</v>
+        <v>36.26051597231919</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.52873484224502</v>
+        <v>36.26051598020577</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.49330370250147</v>
+        <v>36.26051597899548</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.69501887444434</v>
+        <v>36.26051600596526</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.22812949541006</v>
+        <v>36.26051601468421</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.39874449030501</v>
+        <v>36.26051598695884</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.69074373842817</v>
+        <v>36.26051601056253</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.65429496278794</v>
+        <v>36.26051601819326</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.27061028478342</v>
+        <v>36.26051601050771</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.66039402846197</v>
+        <v>36.26051603604702</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.54536318390036</v>
+        <v>36.26051604469089</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.30878934918118</v>
+        <v>36.26051600476661</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.26928569469031</v>
+        <v>36.26051604189037</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>59.51884970464314</v>
+        <v>36.26051605389195</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.637951062388893</v>
+        <v>36.26051584858838</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.37161769680483</v>
+        <v>36.26051587180663</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.04276228903836</v>
+        <v>36.26051587918074</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.599800242812591</v>
+        <v>36.26051587667372</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.67199788054393</v>
+        <v>36.26051590234247</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.73107116723105</v>
+        <v>36.26051591049485</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.28561475367734</v>
+        <v>36.26051588239262</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.58961443532902</v>
+        <v>36.26051590485765</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.13872428476801</v>
+        <v>36.26051591199253</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.93170902238753</v>
+        <v>36.26051590674299</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>37.26101839805925</v>
+        <v>36.2605159310603</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>41.55991815070755</v>
+        <v>36.26051593929355</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.52734139316797</v>
+        <v>36.26051590460312</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.93163510511033</v>
+        <v>36.26051593993601</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>43.52763226102086</v>
+        <v>36.26051595115771</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.1377102523974</v>
+        <v>36.26051589238149</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.94131759549714</v>
+        <v>36.26051591728123</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.94988206956553</v>
+        <v>36.26051592528063</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.69700045395954</v>
+        <v>36.26051592298424</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.95181434833565</v>
+        <v>36.26051595051193</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.38388034310236</v>
+        <v>36.2605159593556</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.16450583410623</v>
+        <v>36.26051593018448</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>32.50277924778132</v>
+        <v>36.26051595427644</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.37794581285575</v>
+        <v>36.26051596201633</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.91418053481365</v>
+        <v>36.26051595518534</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>43.34342150662079</v>
+        <v>36.2605159813389</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.06705556437668</v>
+        <v>36.26051599022162</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.52548996798624</v>
+        <v>36.26051595139774</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>44.55954327778507</v>
+        <v>36.26051598928945</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.67002718129061</v>
+        <v>36.26051600146271</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.15264007177532</v>
+        <v>36.26051595563257</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.89626377283137</v>
+        <v>36.26051597990698</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.93077040142315</v>
+        <v>36.26051598770413</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.32266698638204</v>
+        <v>36.26051598688171</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.51115347137598</v>
+        <v>36.26051601371808</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>42.97206484067691</v>
+        <v>36.26051602233815</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.23861109560571</v>
+        <v>36.26051599488073</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.51905575150661</v>
+        <v>36.26051601836766</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.41947516475459</v>
+        <v>36.26051602591185</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42.99944960759577</v>
+        <v>36.26051601804642</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.38955472830163</v>
+        <v>36.26051604345653</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>61.19772128480971</v>
+        <v>36.26051605199724</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.91762913410092</v>
+        <v>36.26051601201868</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>57.85986577554023</v>
+        <v>36.26051604895881</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>64.00988879659903</v>
+        <v>36.26051606082428</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>6.502237329662005</v>
+        <v>36.26051584051636</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.38769126385289</v>
+        <v>36.260515863877</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.94234951595544</v>
+        <v>36.26051587109688</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.212071912101152</v>
+        <v>36.26051586801359</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.45209967775988</v>
+        <v>36.26051589383976</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.38237610013311</v>
+        <v>36.26051590182163</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.92235385666486</v>
+        <v>36.2605158736042</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.37313518882185</v>
+        <v>36.260515896207</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.80960829822122</v>
+        <v>36.26051590319265</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.36349812300818</v>
+        <v>36.26051589778643</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.82176828079233</v>
+        <v>36.26051592216916</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.97862238611326</v>
+        <v>36.26051593021448</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.75691978560621</v>
+        <v>36.26051589554512</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.39258916771282</v>
+        <v>36.2605159310947</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.81110410294394</v>
+        <v>36.2605159420817</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>10.19247724629193</v>
+        <v>36.26051588342079</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.15822940604368</v>
+        <v>36.26051590846507</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.03630641889515</v>
+        <v>36.26051591629223</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.49943738709523</v>
+        <v>36.26051591343783</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.93354011249215</v>
+        <v>36.26051594112532</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.22133082502032</v>
+        <v>36.26051594977856</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>18.00989103603549</v>
+        <v>36.26051592051373</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>31.50496967859389</v>
+        <v>36.26051594474554</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.25396207798148</v>
+        <v>36.26051595231877</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.57237130020389</v>
+        <v>36.26051594540031</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>42.13793853232087</v>
+        <v>36.26051597161113</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>46.70333618003022</v>
+        <v>36.26051598028959</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.98219115163953</v>
+        <v>36.26051594154166</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>43.26341654193433</v>
+        <v>36.26051597965333</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.17507856590341</v>
+        <v>36.26051599156447</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.64910987294836</v>
+        <v>36.2605159469491</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.5450439424984</v>
+        <v>36.26051597137207</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.45946462850055</v>
+        <v>36.2605159789934</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.57557338412175</v>
+        <v>36.26051597773294</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.93248023392327</v>
+        <v>36.26051600473355</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.26061508722424</v>
+        <v>36.26051601315924</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.55758998093781</v>
+        <v>36.26051598560771</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.9853361247616</v>
+        <v>36.26051600923837</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.76963967842862</v>
+        <v>36.26051601661244</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.1742580004677</v>
+        <v>36.26051600872735</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>55.6867678562175</v>
+        <v>36.26051603420577</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>60.34747390613002</v>
+        <v>36.26051604254403</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.90082788669047</v>
+        <v>36.26051600266204</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>57.075251381591</v>
+        <v>36.26051603982824</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>63.04229590445844</v>
+        <v>36.26051605142614</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.501501506493543</v>
+        <v>36.26051583500267</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.30033083227349</v>
+        <v>36.2605158583331</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>19.95993431988583</v>
+        <v>36.2605158656974</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4.035452560673164</v>
+        <v>36.26051586253983</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.17973234738625</v>
+        <v>36.26051588833258</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.22603781271139</v>
+        <v>36.26051589647412</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.74798777258586</v>
+        <v>36.26051586812365</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.11502748884445</v>
+        <v>36.26051589069721</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.65297076813088</v>
+        <v>36.2605158978226</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.34857702365067</v>
+        <v>36.26051589273314</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.70992720122151</v>
+        <v>36.26051591711139</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.98469730622209</v>
+        <v>36.26051592532188</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.906122354519</v>
+        <v>36.26051589088199</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.40978064346685</v>
+        <v>36.26051592638557</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.98823018222431</v>
+        <v>36.26051593759235</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.868298227335114</v>
+        <v>36.2605158781061</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.74538533443752</v>
+        <v>36.26051590312403</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.73749996287121</v>
+        <v>36.2605159111092</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.981428679787786</v>
+        <v>36.26051590819805</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.31752614706045</v>
+        <v>36.2605159358564</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.73140123848427</v>
+        <v>36.26051594468434</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.48999668800087</v>
+        <v>36.26051591527535</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.89935836779879</v>
+        <v>36.26051593948166</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.75861201589776</v>
+        <v>36.26051594720778</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.21337767420685</v>
+        <v>36.26051594059106</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.6784816192261</v>
+        <v>36.26051596680263</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>43.37245218669933</v>
+        <v>36.26051597565859</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>18.78863544980108</v>
+        <v>36.26051593711325</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.93473987008521</v>
+        <v>36.26051597518482</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.0202046829834</v>
+        <v>36.26051598733643</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>17.69506138735013</v>
+        <v>36.26051594276579</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.5114034700126</v>
+        <v>36.26051596716724</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.53914392845041</v>
+        <v>36.26051597494425</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.46955268884678</v>
+        <v>36.26051597365717</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>34.73847858626102</v>
+        <v>36.26051600063398</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.19190694665397</v>
+        <v>36.26051600923179</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.45281957491752</v>
+        <v>36.26051598154938</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>40.80361359171521</v>
+        <v>36.26051600515922</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.69748933296493</v>
+        <v>36.26051601268393</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.22800654361931</v>
+        <v>36.26051600505674</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>52.6480213316695</v>
+        <v>36.26051603053606</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.43664515303448</v>
+        <v>36.26051603904617</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.10353919388682</v>
+        <v>36.2605159993108</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>54.15667105812786</v>
+        <v>36.26051603644424</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>60.29642200522395</v>
+        <v>36.26051604827907</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5.786391293171029</v>
+        <v>36.26051584360695</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.72887645334625</v>
+        <v>36.26051586720413</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.44432359094812</v>
+        <v>36.26051587467314</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>6.624262947027425</v>
+        <v>36.26051587188637</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.9272408742183</v>
+        <v>36.26051589797403</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.03529629103302</v>
+        <v>36.26051590623133</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>13.39590994468734</v>
+        <v>36.26051587764719</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.90169714476968</v>
+        <v>36.26051590047886</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.49363114315049</v>
+        <v>36.26051590770556</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>23.16122104409321</v>
+        <v>36.26051590239727</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.68814362975511</v>
+        <v>36.26051592709769</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>40.03850922755406</v>
+        <v>36.26051593543615</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.66694661965672</v>
+        <v>36.26051590029354</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.38945788811975</v>
+        <v>36.26051593620306</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>42.05300068142528</v>
+        <v>36.2605159475692</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.348171886332548</v>
+        <v>36.2605158879149</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.37890148080747</v>
+        <v>36.26051591322036</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.43616214404615</v>
+        <v>36.26051592132294</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.776081697378775</v>
+        <v>36.26051591875333</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.28190879525562</v>
+        <v>36.26051594672957</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.76781370647342</v>
+        <v>36.2605159556873</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>17.34433073265022</v>
+        <v>36.26051592602014</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.90208719584292</v>
+        <v>36.26051595050466</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.82432292139166</v>
+        <v>36.26051595834439</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.23259696499628</v>
+        <v>36.26051595144183</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>41.87788783350992</v>
+        <v>36.26051597800605</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.6585998146013</v>
+        <v>36.26051598700312</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.75404058627242</v>
+        <v>36.26051594766954</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.13419446336827</v>
+        <v>36.26051598617867</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.31892362059912</v>
+        <v>36.26051599850896</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.70936009081021</v>
+        <v>36.26051595243082</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.67862018958937</v>
+        <v>36.26051597710358</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.76430856958666</v>
+        <v>36.26051598500084</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.7799785135917</v>
+        <v>36.26051598396298</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.21783506628356</v>
+        <v>36.26051601123974</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.73533647856699</v>
+        <v>36.26051601997048</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.81062221508965</v>
+        <v>36.26051599204521</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.30911543534565</v>
+        <v>36.26051601591755</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>47.25901061821882</v>
+        <v>36.26051602355862</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.73222521881463</v>
+        <v>36.26051601561365</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>55.33673546892646</v>
+        <v>36.26051604142683</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>60.20558619557524</v>
+        <v>36.26051605007717</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.56234552354243</v>
+        <v>36.26051600956297</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.84841343483122</v>
+        <v>36.26051604710927</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.07646895953671</v>
+        <v>36.2605160591271</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.24236983863362</v>
+        <v>36.26051584673043</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.03238866718961</v>
+        <v>36.26051586987956</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.56179988860185</v>
+        <v>36.26051587706041</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.25862260796541</v>
+        <v>36.2605158744583</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.39319848731381</v>
+        <v>36.26051590005063</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.29556088539122</v>
+        <v>36.26051590798935</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.99268090625624</v>
+        <v>36.26051588009009</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.3512630643589</v>
+        <v>36.26051590248824</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.76333393462442</v>
+        <v>36.26051590943613</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.38556633148646</v>
+        <v>36.26051590404005</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.75168364296049</v>
+        <v>36.26051592820295</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>43.8737915643911</v>
+        <v>36.26051593619855</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.73436103745474</v>
+        <v>36.26051590167368</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.22460912848541</v>
+        <v>36.26051593690138</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.60463600809997</v>
+        <v>36.26051594782898</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.56357460797697</v>
+        <v>36.2605158889932</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.41977430145277</v>
+        <v>36.26051591380643</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.26601670260182</v>
+        <v>36.2605159215866</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.16252657306406</v>
+        <v>36.26051591920739</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.47557430803853</v>
+        <v>36.26051594663944</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.7281697347352</v>
+        <v>36.26051595524075</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.68420033750335</v>
+        <v>36.26051592630768</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.07343317470188</v>
+        <v>36.26051595031593</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.79165595015255</v>
+        <v>36.26051595784371</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.19286196573076</v>
+        <v>36.26051595095657</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.65031809620282</v>
+        <v>36.26051597692607</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.17323061219474</v>
+        <v>36.26051598554562</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.56918473881415</v>
+        <v>36.26051594699873</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>46.68348786314965</v>
+        <v>36.2605159847588</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>52.54662414063765</v>
+        <v>36.26051599659844</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.55685487639844</v>
+        <v>36.26051595148689</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.3410206187417</v>
+        <v>36.26051597568099</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.22204340715165</v>
+        <v>36.26051598325271</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.74957076702453</v>
+        <v>36.26051598242297</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.98297675564495</v>
+        <v>36.26051600917056</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.27418396213719</v>
+        <v>36.26051601754141</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.72578977041346</v>
+        <v>36.26051599030472</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.04555026354314</v>
+        <v>36.26051601371394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>50.79757085385376</v>
+        <v>36.26051602104003</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.28291392611406</v>
+        <v>36.26051601319748</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>58.68301566157439</v>
+        <v>36.26051603843478</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>63.29882171015655</v>
+        <v>36.26051604671302</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.98769420108336</v>
+        <v>36.26051600706562</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>59.99182513743732</v>
+        <v>36.26051604388351</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>65.90795488834394</v>
+        <v>36.26051605540595</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-0.3064271626475801</v>
+        <v>36.26051582661547</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.00027757556613</v>
+        <v>36.26051584907103</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.52590223724478</v>
+        <v>36.26051585616189</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-0.3600234961982522</v>
+        <v>36.26051585201188</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.24050929792591</v>
+        <v>36.26051587683745</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.13864839793571</v>
+        <v>36.26051588467669</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6.002948466992137</v>
+        <v>36.26051585728878</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.89461328528579</v>
+        <v>36.26051587901586</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.30298076335978</v>
+        <v>36.26051588587669</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.06949561493565</v>
+        <v>36.26051588107767</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.94183809179219</v>
+        <v>36.2605159045077</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.05854593467804</v>
+        <v>36.26051591240724</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>8.960082150433166</v>
+        <v>36.26051587965307</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.71378937763636</v>
+        <v>36.26051591382532</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.08807621769353</v>
+        <v>36.26051592461599</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.740571943312986</v>
+        <v>36.26051586713366</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.08514048107381</v>
+        <v>36.2605158911945</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>19.93611827518817</v>
+        <v>36.26051589889671</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>2.272205759706342</v>
+        <v>36.26051589493581</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.01991356886174</v>
+        <v>36.26051592153605</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.27770843353746</v>
+        <v>36.26051593005117</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.400582583069685</v>
+        <v>36.26051590165095</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.29552928985875</v>
+        <v>36.26051592493121</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.0182925943863</v>
+        <v>36.26051593238356</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.5397372158327</v>
+        <v>36.26051592613968</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.47437332818135</v>
+        <v>36.26051595131283</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.0010744838693</v>
+        <v>36.26051595985169</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>13.44576688253596</v>
+        <v>36.26051592317609</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.78039613997916</v>
+        <v>36.26051595979119</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.65076703573562</v>
+        <v>36.2605159715122</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.42952006049565</v>
+        <v>36.2605159302251</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.71589090698039</v>
+        <v>36.26051595369613</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.60566255170295</v>
+        <v>36.26051596120842</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.56935309127214</v>
+        <v>36.26051595889118</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.25268990845714</v>
+        <v>36.26051598483937</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.55354923144856</v>
+        <v>36.26051599314452</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.16894125118517</v>
+        <v>36.26051596639845</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.00776001684634</v>
+        <v>36.26051598910806</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.76821486700934</v>
+        <v>36.26051599637664</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.33303733741527</v>
+        <v>36.26051598916457</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>46.22855174431808</v>
+        <v>36.26051601364284</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>50.85241935697915</v>
+        <v>36.26051602186053</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.52729706023225</v>
+        <v>36.26051598399474</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>47.77285345283782</v>
+        <v>36.26051601971229</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>53.70234410754223</v>
+        <v>36.26051603114428</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.237711213489391</v>
+        <v>36.26051583037733</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>14.84376919463723</v>
+        <v>36.26051585327745</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.32391591129634</v>
+        <v>36.26051586034316</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.386374945541554</v>
+        <v>36.2605158563147</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.31771813863459</v>
+        <v>36.26051588163174</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.16558686402268</v>
+        <v>36.26051588944317</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.871359738474979</v>
+        <v>36.26051586167829</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.05227932452531</v>
+        <v>36.26051588383551</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.41668137696328</v>
+        <v>36.260515890672</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.98484760285258</v>
+        <v>36.26051588550317</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.15671728527263</v>
+        <v>36.26051590937166</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.22420412330272</v>
+        <v>36.26051591724102</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.6089073516572</v>
+        <v>36.26051588366088</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.81879996571988</v>
+        <v>36.26051591850964</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.12378834970968</v>
+        <v>36.26051592926203</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>5.715937825274676</v>
+        <v>36.2605158716263</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.38066760256178</v>
+        <v>36.26051589616338</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.18134441926238</v>
+        <v>36.2605159038325</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.461791189023771</v>
+        <v>36.26051589999891</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.56330954240502</v>
+        <v>36.26051592712567</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.76549928672376</v>
+        <v>36.2605159356042</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.7315136819199</v>
+        <v>36.26051590681973</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.93583056679688</v>
+        <v>36.26051593056079</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.60996232280616</v>
+        <v>36.26051593798113</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.93860385008438</v>
+        <v>36.26051593135477</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.1951507771001</v>
+        <v>36.2605159569987</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>40.66713101214107</v>
+        <v>36.26051596549991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.57584798915127</v>
+        <v>36.2605159279472</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.39836000494726</v>
+        <v>36.26051596528703</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.19208081152067</v>
+        <v>36.26051597695768</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.39613463036962</v>
+        <v>36.26051593483632</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.99426251757574</v>
+        <v>36.26051595876942</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.83314817919066</v>
+        <v>36.26051596624053</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.74872181916765</v>
+        <v>36.26051596406209</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>32.77658776873388</v>
+        <v>36.26051599052114</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.02119162558835</v>
+        <v>36.26051599878075</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.49764084390698</v>
+        <v>36.26051597167901</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.63771779421051</v>
+        <v>36.2605159948357</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.34896994548443</v>
+        <v>36.26051600206443</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.75057402129516</v>
+        <v>36.26051599450201</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.95905791156777</v>
+        <v>36.26051601943798</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.52788501507075</v>
+        <v>36.26051602761031</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.68916882484971</v>
+        <v>36.26051598890564</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>51.40979310169251</v>
+        <v>36.26051602532637</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>57.26174434081055</v>
+        <v>36.26051603669568</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.7291317020233876</v>
+        <v>36.26051582511582</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.64415328715227</v>
+        <v>36.26051584768449</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.12505476508262</v>
+        <v>36.26051585472322</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.8192220576645042</v>
+        <v>36.26051585055581</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.8548594895126</v>
+        <v>36.2605158755064</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.70356168650297</v>
+        <v>36.26051588328802</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>5.562322260165349</v>
+        <v>36.26051585578575</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>17.51828754771231</v>
+        <v>36.26051587762225</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.88342729333022</v>
+        <v>36.26051588443265</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>14.64777538562597</v>
+        <v>36.26051587958938</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.58062907953127</v>
+        <v>36.26051590311742</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.64546309174856</v>
+        <v>36.26051591096062</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.49512118627791</v>
+        <v>36.26051587809955</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.3503020900467</v>
+        <v>36.2605159124439</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>32.65643399774807</v>
+        <v>36.26051592315526</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.348064807575991</v>
+        <v>36.26051586568106</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.76308061682927</v>
+        <v>36.26051588986718</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.56414431871627</v>
+        <v>36.26051589750537</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1.838240878760423</v>
+        <v>36.26051589354511</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.66377213133186</v>
+        <v>36.26051592028388</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.86639217489443</v>
+        <v>36.26051592872821</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.991365539150266</v>
+        <v>36.26051590021655</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.95435104706558</v>
+        <v>36.26051592361804</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.62886704592679</v>
+        <v>36.26051593100844</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.15954913668183</v>
+        <v>36.26051592473155</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.1583149959187</v>
+        <v>36.26051595001285</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.62671497775452</v>
+        <v>36.26051595848273</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.02533304667045</v>
+        <v>36.26051592169898</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.46732757625767</v>
+        <v>36.26051595850474</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.26163875891773</v>
+        <v>36.26051597012832</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.33401794983195</v>
+        <v>36.26051592898386</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.6885319010532</v>
+        <v>36.26051595258011</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.5279700581312</v>
+        <v>36.26051596001741</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.44186996234012</v>
+        <v>36.26051595774629</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.20049249043081</v>
+        <v>36.26051598383292</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.44570693980278</v>
+        <v>36.26051599205517</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.07581944189149</v>
+        <v>36.26051596521988</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.98045882469823</v>
+        <v>36.26051598805063</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>38.69225420048245</v>
+        <v>36.26051599524667</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.27867998265734</v>
+        <v>36.260515988033</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.2327363172714</v>
+        <v>36.26051601261956</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>50.79742866341758</v>
+        <v>36.26051602075732</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.42460613696635</v>
+        <v>36.26051598279927</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.77402170189158</v>
+        <v>36.26051601870737</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.62681191393182</v>
+        <v>36.26051603002526</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3.630385722693426</v>
+        <v>36.2605158214188</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>8.368250832889611</v>
+        <v>36.26051584335354</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.75278904559612</v>
+        <v>36.26051585018287</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4.072125178081905</v>
+        <v>36.26051584560631</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.187918129743426</v>
+        <v>36.26051586985608</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.93007100609729</v>
+        <v>36.26051587740619</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.049385188519047</v>
+        <v>36.26051585059268</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.64333585526015</v>
+        <v>36.26051587181583</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.91530871774212</v>
+        <v>36.26051587842361</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.84487099633794</v>
+        <v>36.26051587380096</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.41198514730723</v>
+        <v>36.2605158966634</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.36756810507445</v>
+        <v>36.26051590427812</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.97881051277956</v>
+        <v>36.26051587256359</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.26306970292267</v>
+        <v>36.26051590594326</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.42231856409186</v>
+        <v>36.26051591633594</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.4463692011963474</v>
+        <v>36.26051586091824</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.56785642136901</v>
+        <v>36.26051588442709</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.26755479038513</v>
+        <v>36.26051589184279</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.286182497717952</v>
+        <v>36.26051588746866</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.09641512321727</v>
+        <v>36.26051591345868</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>17.18695617630013</v>
+        <v>36.26051592165704</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.589125939659233</v>
+        <v>36.26051589385961</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.16482660809361</v>
+        <v>36.26051591660581</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.74134406934225</v>
+        <v>36.26051592378093</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>15.43321442739659</v>
+        <v>36.26051591776292</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.04041166192077</v>
+        <v>36.26051594233144</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>32.39268024862285</v>
+        <v>36.2605159505601</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.576608671041988</v>
+        <v>36.26051591502011</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.40785932288794</v>
+        <v>36.26051595079522</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.04765446952157</v>
+        <v>36.26051596208021</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.64328671427727</v>
+        <v>36.26051592307921</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.60189641241049</v>
+        <v>36.26051594601895</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.34028225967312</v>
+        <v>36.26051595324264</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.39181888340591</v>
+        <v>36.2605159505551</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.71290523091513</v>
+        <v>36.26051597591594</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.84638553208843</v>
+        <v>36.26051598390202</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.74800677029372</v>
+        <v>36.26051595773801</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.27007566844969</v>
+        <v>36.26051597993355</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.88417192789744</v>
+        <v>36.2605159869229</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.59707109537741</v>
+        <v>36.26051597999206</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.1654642379972</v>
+        <v>36.26051600389225</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>46.61309262618457</v>
+        <v>36.26051601180092</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.9977216084633</v>
+        <v>36.26051597509009</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.74384924889466</v>
+        <v>36.26051600999914</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>49.44260594558954</v>
+        <v>36.26051602099195</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>4.055519396596779</v>
+        <v>36.26051584042362</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.94774992250755</v>
+        <v>36.26051586400335</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.72343615692968</v>
+        <v>36.26051587155575</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.791667561252225</v>
+        <v>36.26051586872609</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.03909815119818</v>
+        <v>36.26051589479446</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.21375484956049</v>
+        <v>36.26051590314394</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.56444129832622</v>
+        <v>36.260515874483</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.02164663352675</v>
+        <v>36.26051589729777</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.67182500688607</v>
+        <v>36.26051590460516</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.42145760176373</v>
+        <v>36.26051589947976</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.89219424537013</v>
+        <v>36.26051592417758</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.31023738671407</v>
+        <v>36.2605159326114</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.02206259954639</v>
+        <v>36.26051589760128</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.66798882941053</v>
+        <v>36.26051593348425</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.42333501158806</v>
+        <v>36.26051594497726</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.431100696317039</v>
+        <v>36.26051588484646</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.41037246077894</v>
+        <v>36.2605159101367</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.53308876582181</v>
+        <v>36.26051591833051</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.746952446224189</v>
+        <v>36.26051591572814</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.19590117628569</v>
+        <v>36.26051594368756</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.75417641313024</v>
+        <v>36.26051595274615</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.31394363113314</v>
+        <v>36.26051592299576</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.8219534613549</v>
+        <v>36.26051594746556</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.80747725418563</v>
+        <v>36.26051595539355</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.29473177274201</v>
+        <v>36.26051594866522</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.88176303690842</v>
+        <v>36.26051597522986</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>44.73626903045209</v>
+        <v>36.26051598432942</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.91181109174163</v>
+        <v>36.2605159451128</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>41.2135461491924</v>
+        <v>36.26051598359878</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>47.4980353032666</v>
+        <v>36.26051599606789</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.00579889852597</v>
+        <v>36.26051595001559</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.92883953307248</v>
+        <v>36.26051597467592</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.0795900380316</v>
+        <v>36.26051598266307</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.98848454130677</v>
+        <v>36.26051598160983</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.37525029374648</v>
+        <v>36.26051600887285</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.9646885697766</v>
+        <v>36.26051601770297</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.01967203744587</v>
+        <v>36.26051598970214</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>41.47347903648892</v>
+        <v>36.26051601356246</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.48628469538902</v>
+        <v>36.26051602129049</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.03239367130966</v>
+        <v>36.26051601349442</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>53.58324692837422</v>
+        <v>36.26051603930811</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>58.52553807967114</v>
+        <v>36.26051604805769</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.94863887911619</v>
+        <v>36.26051600762813</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>55.16427236365688</v>
+        <v>36.26051604515552</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>61.49148682823702</v>
+        <v>36.26051605731013</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>2.568011351977407</v>
+        <v>36.26051582991792</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>15.01593408536805</v>
+        <v>36.26051585254935</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.50071263444298</v>
+        <v>36.26051585960442</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>2.707372082933876</v>
+        <v>36.26051585555836</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>16.46398917902108</v>
+        <v>36.26051588057834</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.31697328291662</v>
+        <v>36.26051588837801</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>9.141675863680049</v>
+        <v>36.2605158608931</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.16983301599823</v>
+        <v>36.26051588279034</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.53870880064439</v>
+        <v>36.26051588961653</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.17207716658506</v>
+        <v>36.26051588459654</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.18593599036091</v>
+        <v>36.26051590818736</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.2548281801097</v>
+        <v>36.26051591604192</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.88218849870086</v>
+        <v>36.26051588290462</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.85109235394216</v>
+        <v>36.26051591734449</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.16315070338995</v>
+        <v>36.26051592808069</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>5.639712465363804</v>
+        <v>36.26051587033709</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.1313804345587</v>
+        <v>36.26051589457872</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.93679051272146</v>
+        <v>36.26051590223958</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>5.36231154125176</v>
+        <v>36.26051589836813</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.27260625948023</v>
+        <v>36.26051592516825</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.48002480847088</v>
+        <v>36.26051593363766</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.56644277840954</v>
+        <v>36.26051590514395</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.60356914622196</v>
+        <v>36.26051592859914</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.2822746742217</v>
+        <v>36.26051593601148</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.67692575062972</v>
+        <v>36.26051592955367</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.75923650916034</v>
+        <v>36.26051595489157</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.23256810079</v>
+        <v>36.26051596338057</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.40656845936418</v>
+        <v>36.26051592632584</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.96535589250335</v>
+        <v>36.26051596321605</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.76629976665896</v>
+        <v>36.26051597487414</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.06899755326526</v>
+        <v>36.26051593306608</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.49556690020788</v>
+        <v>36.26051595670958</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.33885674134471</v>
+        <v>36.26051596417598</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>17.38412590318184</v>
+        <v>36.26051596194588</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.22242542871574</v>
+        <v>36.26051598808475</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.47189577799053</v>
+        <v>36.26051599633917</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.05758618009009</v>
+        <v>36.2605159695084</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.03191895678056</v>
+        <v>36.26051599238487</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.74742940744297</v>
+        <v>36.26051599960905</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.2056932940312</v>
+        <v>36.26051599221319</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.24152711437385</v>
+        <v>36.26051601684898</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>53.8112045005519</v>
+        <v>36.26051602501332</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.2390213661003</v>
+        <v>36.26051598680503</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.69821936432351</v>
+        <v>36.26051602278504</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>56.55688885135335</v>
+        <v>36.2605160341472</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>8.775183229108801</v>
+        <v>36.26051584919644</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.72837437718453</v>
+        <v>36.2605158727797</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.44846683093437</v>
+        <v>36.2605158802655</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>9.875582843618897</v>
+        <v>36.26051587789678</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.19039728573785</v>
+        <v>36.26051590396904</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.30359117294699</v>
+        <v>36.26051591224491</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.70848500478079</v>
+        <v>36.26051588373723</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.22462125408193</v>
+        <v>36.26051590655541</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.82105219012763</v>
+        <v>36.26051591379836</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.50528502636655</v>
+        <v>36.26051590843604</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.04550865555508</v>
+        <v>36.26051593312879</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.39867155299532</v>
+        <v>36.26051594148223</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>19.93641516917232</v>
+        <v>36.26051590618215</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.67524510727769</v>
+        <v>36.26051594207048</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.34586119456471</v>
+        <v>36.26051595346215</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.18067179202598</v>
+        <v>36.26051589345046</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.21912922459708</v>
+        <v>36.26051591873876</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.27873095855273</v>
+        <v>36.26051592685656</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.86309192286043</v>
+        <v>36.26051592470129</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.37746360458761</v>
+        <v>36.26051595265857</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.86596031820999</v>
+        <v>36.26051596163312</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.48899976014131</v>
+        <v>36.26051593204426</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.05422559998515</v>
+        <v>36.26051595651218</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.9787307958129</v>
+        <v>36.26051596436663</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.41031215158548</v>
+        <v>36.26051595740861</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.06517247659435</v>
+        <v>36.26051598396232</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.84613294218758</v>
+        <v>36.26051599297194</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.86296335355582</v>
+        <v>36.26051595349023</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.25490055241253</v>
+        <v>36.26051599197326</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.44319377630994</v>
+        <v>36.2605160043267</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.21663289244334</v>
+        <v>36.26051595745649</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.19202977510572</v>
+        <v>36.26051598210861</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.27845258375443</v>
+        <v>36.26051599001853</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.53043671800677</v>
+        <v>36.26051598935506</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.97508127757779</v>
+        <v>36.260516016609</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.49339634188269</v>
+        <v>36.26051602535374</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.60757682637649</v>
+        <v>36.26051599750386</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.11200397770607</v>
+        <v>36.26051602135623</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.06261448008703</v>
+        <v>36.26051602900954</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.56112396043177</v>
+        <v>36.26051602100853</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>58.17276891855869</v>
+        <v>36.26051604680524</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>63.0399440608298</v>
+        <v>36.26051605546573</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.33307909204417</v>
+        <v>36.26051601482524</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>59.62850576287723</v>
+        <v>36.26051605234014</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>65.85767377911185</v>
+        <v>36.26051606437722</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5.037916041657784</v>
+        <v>36.26051584769844</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.76690909646387</v>
+        <v>36.2605158706078</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.48282280968218</v>
+        <v>36.2605158779406</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.806058756228964</v>
+        <v>36.26051587547489</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.87307257292296</v>
+        <v>36.26051590080213</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.9816451479435</v>
+        <v>36.26051590890884</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.50097460343018</v>
+        <v>36.26051588110047</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.80042648494647</v>
+        <v>36.26051590326662</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.39282176227235</v>
+        <v>36.26051591036153</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.26717831206786</v>
+        <v>36.26051590530928</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.58596663357876</v>
+        <v>36.26051592931805</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.93760134717161</v>
+        <v>36.26051593750956</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.96589441943953</v>
+        <v>36.26051590335375</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.36307119067921</v>
+        <v>36.26051593821655</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.02729294792772</v>
+        <v>36.2605159493754</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.480732615200786</v>
+        <v>36.26051589114498</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.28368878020937</v>
+        <v>36.26051591571791</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.34160554713472</v>
+        <v>36.26051592367248</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.835499974645156</v>
+        <v>36.26051592142064</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.08957421983325</v>
+        <v>36.26051594858703</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.57620905581403</v>
+        <v>36.26051595738113</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.31602385650913</v>
+        <v>36.26051592851105</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.65363593286256</v>
+        <v>36.2605159522868</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.57651928971059</v>
+        <v>36.26051595998332</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.19044197875499</v>
+        <v>36.26051595335655</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.61291959793918</v>
+        <v>36.26051597918298</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>45.39493889292618</v>
+        <v>36.26051598801956</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.90365663276383</v>
+        <v>36.26051594976494</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>41.9367178619782</v>
+        <v>36.26051598715932</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>48.12241983491745</v>
+        <v>36.26051599926436</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.81487585448347</v>
+        <v>36.26051595403663</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.56270916886792</v>
+        <v>36.26051597799366</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.64761609148584</v>
+        <v>36.26051598574701</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.80719067540451</v>
+        <v>36.26051598495434</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.00030795476231</v>
+        <v>36.26051601143983</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.51694881591008</v>
+        <v>36.26051602001149</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.74193687650168</v>
+        <v>36.26051599284256</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.02641703309114</v>
+        <v>36.26051601602239</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>45.97556849500143</v>
+        <v>36.26051602352422</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.6256682843763</v>
+        <v>36.26051601585878</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>54.01351563817634</v>
+        <v>36.26051604095084</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>58.88149747893682</v>
+        <v>36.26051604944644</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.63285529847419</v>
+        <v>36.2605160100301</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>55.58150457011013</v>
+        <v>36.26051604648723</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>61.80834589933391</v>
+        <v>36.26051605828607</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>3.619724575264307</v>
+        <v>36.26051583337529</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.66023237662217</v>
+        <v>36.26051585708322</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>20.34488990969713</v>
+        <v>36.26051586452424</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>4.081403571450721</v>
+        <v>36.26051586087763</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>18.49286081090015</v>
+        <v>36.26051588708773</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.56684775899438</v>
+        <v>36.2605158953141</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.86386798147966</v>
+        <v>36.26051586658491</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.46456742133417</v>
+        <v>36.26051588952373</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.02668865745194</v>
+        <v>36.26051589672336</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.44645583988163</v>
+        <v>36.26051589140324</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.04747021683359</v>
+        <v>36.2605159161538</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.3528607161803</v>
+        <v>36.26051592444347</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>13.85111319656091</v>
+        <v>36.26051588945321</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.72302014131774</v>
+        <v>36.26051592553127</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.33971386370213</v>
+        <v>36.26051593685481</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>6.908312017940414</v>
+        <v>36.2605158763981</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.04197309772589</v>
+        <v>36.26051590179944</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.06461878370954</v>
+        <v>36.26051590987753</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>6.939942930285756</v>
+        <v>36.26051590641659</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.55968529251632</v>
+        <v>36.26051593449882</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.00729294987102</v>
+        <v>36.2605159434295</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>14.52549989399093</v>
+        <v>36.26051591363374</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.18292533814027</v>
+        <v>36.26051593821102</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>32.07164946136062</v>
+        <v>36.26051594602706</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.23813739162672</v>
+        <v>36.26051593916656</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.9595354682054</v>
+        <v>36.26051596575882</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.69137900973943</v>
+        <v>36.26051597471411</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.66349099227563</v>
+        <v>36.26051593558736</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.20053537170408</v>
+        <v>36.2605159742424</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>46.33257858609809</v>
+        <v>36.26051598653542</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.48168246893469</v>
+        <v>36.26051594159963</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.54871592505568</v>
+        <v>36.2605159663694</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.60726107454855</v>
+        <v>36.26051597424516</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.17000573576311</v>
+        <v>36.2605159724188</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.71606351971114</v>
+        <v>36.26051599980281</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.20353995538611</v>
+        <v>36.2605160085098</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.23238599297988</v>
+        <v>36.26051598045203</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.8255500293107</v>
+        <v>36.26051600441824</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.74917054252643</v>
+        <v>36.2605160120385</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.01378878358016</v>
+        <v>36.26051600416648</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.68945353738251</v>
+        <v>36.26051603001449</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>57.51814729166425</v>
+        <v>36.26051603862943</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.76176397019725</v>
+        <v>36.26051599830598</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.19686408670779</v>
+        <v>36.26051603599992</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>60.38361797258108</v>
+        <v>36.26051604798504</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.348227964171858</v>
+        <v>36.26051584006746</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>15.72179212298177</v>
+        <v>36.26051586268519</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.35914914802704</v>
+        <v>36.26051586995678</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3.881258846225727</v>
+        <v>36.26051586695596</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>17.55551704879126</v>
+        <v>36.26051589196079</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.57723037849436</v>
+        <v>36.26051589999984</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.35439046347862</v>
+        <v>36.26051587241657</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.31044741194673</v>
+        <v>36.26051589430055</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.8268983709718</v>
+        <v>36.26051590133625</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.78571691681896</v>
+        <v>36.2605158964459</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.75397339368496</v>
+        <v>36.260515920136</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.01580702442018</v>
+        <v>36.26051592826131</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.67238869379385</v>
+        <v>36.26051589477436</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.5279563342878</v>
+        <v>36.26051592919337</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.07243504344503</v>
+        <v>36.26051594025908</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.722756507785018</v>
+        <v>36.2605158827872</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.14383382433701</v>
+        <v>36.26051590704957</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.11844590457078</v>
+        <v>36.26051591494123</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.862255757075538</v>
+        <v>36.26051591217547</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.69434172275037</v>
+        <v>36.26051593899852</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.08886872579755</v>
+        <v>36.26051594772308</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.10132893218018</v>
+        <v>36.26051591909068</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.06998080276399</v>
+        <v>36.26051594256594</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.91233398801551</v>
+        <v>36.26051595020159</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.61231691539806</v>
+        <v>36.26051594377341</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.65567316360323</v>
+        <v>36.26051596925851</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.34195900148715</v>
+        <v>36.26051597802733</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>18.50813274533681</v>
+        <v>36.2605159404922</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.95930010686876</v>
+        <v>36.26051597741397</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.01801130671342</v>
+        <v>36.26051598942328</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.11923771396378</v>
+        <v>36.26051594580326</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.48691662295377</v>
+        <v>36.26051596946688</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.49114248311147</v>
+        <v>36.26051597715989</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>18.87499711671436</v>
+        <v>36.26051597590511</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.64802893050355</v>
+        <v>36.26051600206623</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.07545896062145</v>
+        <v>36.26051601057117</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.5648906791937</v>
+        <v>36.26051598361938</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>39.48206902159401</v>
+        <v>36.26051600651533</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.3532245077119</v>
+        <v>36.26051601395877</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.06996194817675</v>
+        <v>36.26051600649496</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>51.07860001734824</v>
+        <v>36.26051603126647</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>55.85168578248899</v>
+        <v>36.26051603969748</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>32.2469541143627</v>
+        <v>36.26051600097369</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>52.6163525164895</v>
+        <v>36.26051603698433</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>58.72019583807187</v>
+        <v>36.26051604869134</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>4.724347214805828</v>
+        <v>36.2605158474959</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.37643838099359</v>
+        <v>36.26051587027295</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.08981624921536</v>
+        <v>36.2605158775887</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.464314592556935</v>
+        <v>36.26051587513045</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.44633899161093</v>
+        <v>36.26051590031143</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.55210732486961</v>
+        <v>36.26051590839929</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.12533432646781</v>
+        <v>36.26051588072461</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.35047237045494</v>
+        <v>36.26051590276275</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.94041827553907</v>
+        <v>36.26051590984116</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.8649076318307</v>
+        <v>36.2605159048565</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.10789290490519</v>
+        <v>36.26051592873198</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>38.45609410007354</v>
+        <v>36.26051593690499</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.62037655725958</v>
+        <v>36.2605159029645</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.90036343686434</v>
+        <v>36.26051593762597</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>40.56071632449699</v>
+        <v>36.26051594875887</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.101543437134971</v>
+        <v>36.26051589072811</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.82180184329609</v>
+        <v>36.26051591515986</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.87719603205319</v>
+        <v>36.26051592309659</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.427896698034651</v>
+        <v>36.26051592085265</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.59057498729746</v>
+        <v>36.26051594786296</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.07442072690165</v>
+        <v>36.26051595663734</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>15.86988081865794</v>
+        <v>36.26051592790439</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.1275760020796</v>
+        <v>36.26051595154355</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.04802365621407</v>
+        <v>36.26051595922279</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.71208651076505</v>
+        <v>36.26051595266961</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.05269152157966</v>
+        <v>36.26051597835339</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.83108361425339</v>
+        <v>36.26051598717041</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.48222208619046</v>
+        <v>36.2605159491498</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.3892644570231</v>
+        <v>36.26051598632935</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>47.57111783295834</v>
+        <v>36.26051599840724</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.42810269506791</v>
+        <v>36.26051595340518</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.0946748120244</v>
+        <v>36.2605159772248</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.1768343837991</v>
+        <v>36.26051598496142</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.38827660657928</v>
+        <v>36.26051598417138</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.49158578714022</v>
+        <v>36.26051601050496</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.00518818811525</v>
+        <v>36.26051601905812</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.28251311604697</v>
+        <v>36.26051599201827</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>41.48846382187294</v>
+        <v>36.26051601506516</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>45.43496181869513</v>
+        <v>36.26051602255079</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.12823810370728</v>
+        <v>36.26051601495846</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.43540218712501</v>
+        <v>36.2605160399116</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.29926168615737</v>
+        <v>36.26051604838898</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.18866773735894</v>
+        <v>36.26051600920607</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.01349035961101</v>
+        <v>36.2605160454541</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>61.23613932225834</v>
+        <v>36.26051605722747</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>5.317739468970306</v>
+        <v>36.26051583997633</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>18.17103358782175</v>
+        <v>36.2605158634726</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>21.88885219385274</v>
+        <v>36.2605158709335</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>6.097279607964353</v>
+        <v>36.26051586817812</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.30169410156338</v>
+        <v>36.26051589415422</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.41236704281714</v>
+        <v>36.26051590240256</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>12.85879139702968</v>
+        <v>36.26051587386273</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.27838915764281</v>
+        <v>36.26051589659675</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.87262580725211</v>
+        <v>36.26051590381562</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.58439702175837</v>
+        <v>36.26051589866363</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>35.00800454828808</v>
+        <v>36.26051592324669</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>39.35477940040609</v>
+        <v>36.26051593157143</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.10252358221739</v>
+        <v>36.26051589670776</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.68914893733955</v>
+        <v>36.26051593246372</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>41.35627913161226</v>
+        <v>36.26051594381751</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>8.720584172390154</v>
+        <v>36.26051588392428</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>22.65649816119603</v>
+        <v>36.260515909124</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.71235479093266</v>
+        <v>36.26051591721361</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.078836499594889</v>
+        <v>36.26051591469522</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.47988515379195</v>
+        <v>36.26051594255456</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.96423637159987</v>
+        <v>36.26051595149796</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.63435768340013</v>
+        <v>36.26051592188215</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.10048846702368</v>
+        <v>36.26051594626436</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.0213774224352</v>
+        <v>36.26051595409154</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>27.48459214841608</v>
+        <v>36.26051594736676</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.01811800634086</v>
+        <v>36.2605159738047</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>45.79081045020516</v>
+        <v>36.26051598278234</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.02020819817138</v>
+        <v>36.26051594375396</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.25591527256381</v>
+        <v>36.26051598210218</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>48.43848423146055</v>
+        <v>36.26051599441272</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.23867885159677</v>
+        <v>36.26051594870928</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.11410501599719</v>
+        <v>36.26051597328274</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>37.20106236752664</v>
+        <v>36.26051598116384</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.25227859536348</v>
+        <v>36.26051598020808</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.58643982896845</v>
+        <v>36.26051600737507</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.10534154021373</v>
+        <v>36.26051601608795</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.27356420502041</v>
+        <v>36.26051598821393</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.68137717710741</v>
+        <v>36.26051601199021</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>46.63251186622585</v>
+        <v>36.26051601961564</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.16777885812625</v>
+        <v>36.26051601185168</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.65807307164288</v>
+        <v>36.26051603754435</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>59.5208684272553</v>
+        <v>36.26051604617286</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>35.0091939032156</v>
+        <v>36.26051600595245</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>56.15231489809516</v>
+        <v>36.26051604334766</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>62.38227744964338</v>
+        <v>36.26051605534089</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.838438634413549</v>
+        <v>36.26051583735092</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>17.89395397734542</v>
+        <v>36.26051586108559</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>21.58545651219485</v>
+        <v>36.26051586855444</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.482132574328144</v>
+        <v>36.26051586523622</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.91014447056442</v>
+        <v>36.26051589147588</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>23.99170358645853</v>
+        <v>36.26051589973301</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>12.28850416652709</v>
+        <v>36.2605158709977</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.90366817195261</v>
+        <v>36.26051589396238</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.47241061620525</v>
+        <v>36.26051590118893</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>21.93088091212282</v>
+        <v>36.26051589584456</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.55205838753172</v>
+        <v>36.26051592063956</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.86728586268151</v>
+        <v>36.26051592896152</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.3111265292878</v>
+        <v>36.26051589380142</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.2058896293935</v>
+        <v>36.26051592992016</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>40.83300509799027</v>
+        <v>36.26051594128604</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.05971572334721</v>
+        <v>36.26051588064198</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>22.20796603273029</v>
+        <v>36.26051590607447</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.23763094911494</v>
+        <v>36.26051591418093</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>8.26881881861555</v>
+        <v>36.26051591104505</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.90465207196245</v>
+        <v>36.26051593916173</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.36002434706209</v>
+        <v>36.26051594812376</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>15.87565586147317</v>
+        <v>36.26051591831661</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.54713984413404</v>
+        <v>36.26051594292404</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.44265339447304</v>
+        <v>36.26051595076753</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.64886212153804</v>
+        <v>36.26051594386996</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.39037352328875</v>
+        <v>36.26051597051329</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.13267273304471</v>
+        <v>36.26051597950043</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.05325659837332</v>
+        <v>36.26051594019099</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.61251703254366</v>
+        <v>36.26051597889345</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>47.75524847928035</v>
+        <v>36.26051599122963</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.41556713077177</v>
+        <v>36.26051594559855</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.49480092104617</v>
+        <v>36.2605159703954</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.56043172361501</v>
+        <v>36.2605159782994</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.27070344809549</v>
+        <v>36.26051597676053</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.83021494273582</v>
+        <v>36.26051600417448</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>40.32552610723958</v>
+        <v>36.26051601291267</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.34671921193129</v>
+        <v>36.26051598484396</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>41.9516357572725</v>
+        <v>36.26051600883636</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>45.88210815139958</v>
+        <v>36.26051601648395</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.18212774982216</v>
+        <v>36.26051600856442</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.87512556094441</v>
+        <v>36.26051603445716</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>58.71449490043393</v>
+        <v>36.2605160431031</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>33.91389744905182</v>
+        <v>36.26051600260635</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>55.36757504718187</v>
+        <v>36.26051604034149</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>61.56511283410204</v>
+        <v>36.26051605236958</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.144</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.232</v>
+        <v>19.966</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.843</v>
+        <v>-0.884</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.795</v>
+        <v>24.053</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.594</v>
+        <v>16.315</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36.26051584616268</v>
+        <v>-1.772223970754936</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.26051586936764</v>
+        <v>27.66041154741742</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.26051587680529</v>
+        <v>34.51975541389021</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.26051587426559</v>
+        <v>5.899895054889416</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.26051589991963</v>
+        <v>25.59319303713774</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.26051590814225</v>
+        <v>30.85760894245292</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36.2605158799815</v>
+        <v>17.24952874439428</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.26051590243367</v>
+        <v>33.51930220599409</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.26051590963002</v>
+        <v>37.80908737528363</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.26051590451984</v>
+        <v>39.36168479246081</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.26051592883518</v>
+        <v>45.90621702959</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.26051593714109</v>
+        <v>50.3834586337157</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.26051590255161</v>
+        <v>14.26726873713807</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.26051593786426</v>
+        <v>38.78822903574333</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.26051594918266</v>
+        <v>45.28149536289465</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.26051589004334</v>
+        <v>0.009770460828057992</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.26051591493148</v>
+        <v>33.70992986005299</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.2605159230004</v>
+        <v>43.01652856966811</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.26051592067904</v>
+        <v>4.737089796667615</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.26051594819391</v>
+        <v>28.76560088072297</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.26051595711444</v>
+        <v>36.33342252943625</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.2605159278799</v>
+        <v>19.02954074451999</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.26051595196064</v>
+        <v>38.74450894893551</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.26051595976779</v>
+        <v>45.01545819341337</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.26051595306956</v>
+        <v>44.29150764979693</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.26051597922344</v>
+        <v>52.4219803917002</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.26051598818425</v>
+        <v>58.57252082019716</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.2605159494495</v>
+        <v>18.12193467924059</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.26051598732356</v>
+        <v>47.76669880662226</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.26051599960262</v>
+        <v>56.76584486765162</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.26051595379216</v>
+        <v>7.829105471652401</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.26051597805711</v>
+        <v>43.89201623839973</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.26051598592274</v>
+        <v>53.06302379531696</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.26051598508861</v>
+        <v>13.83367900468221</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.26051601191452</v>
+        <v>40.41791987057427</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.2605160206103</v>
+        <v>47.98462543936762</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.26051599309531</v>
+        <v>30.47869885252948</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.26051601657307</v>
+        <v>52.54233637580412</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.26051602418354</v>
+        <v>58.75335738972096</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.26051601643157</v>
+        <v>61.6905387705855</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.26051604184207</v>
+        <v>70.2945808290131</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36.26051605045839</v>
+        <v>76.55863152330951</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.26051601054433</v>
+        <v>32.70298448349506</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.26051604747004</v>
+        <v>65.32275967156266</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.26051605943975</v>
+        <v>74.26141989456495</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.26051583315635</v>
+        <v>0.9915627937114877</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.26051585659147</v>
+        <v>31.70670379103189</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.26051586384236</v>
+        <v>37.7785121125675</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.26051586016688</v>
+        <v>9.584624884188525</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.26051588607538</v>
+        <v>30.63748123521355</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26051589409155</v>
+        <v>35.16830000603839</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.26051586573539</v>
+        <v>21.19573271373109</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.26051588841025</v>
+        <v>38.66414957879944</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.26051589542592</v>
+        <v>42.31562185485787</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.26051589009244</v>
+        <v>43.91117571521643</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.26051591452344</v>
+        <v>51.00049254005815</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.26051592259517</v>
+        <v>54.96544096141076</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.26051588805966</v>
+        <v>17.22686201602953</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.26051592372258</v>
+        <v>43.34779207428891</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.26051593475678</v>
+        <v>48.94384352012439</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.26051587529184</v>
+        <v>0.2628390831199887</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.26051590040081</v>
+        <v>35.02348059917648</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.26051590826646</v>
+        <v>43.50887889036863</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.26051590479135</v>
+        <v>5.690280299982337</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.26051593255037</v>
+        <v>30.79833977012362</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.26051594124618</v>
+        <v>37.64837003487725</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.26051591184861</v>
+        <v>20.41677221917158</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.26051593614302</v>
+        <v>41.09949171208222</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.2605159437535</v>
+        <v>46.73604359063349</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.2605159369306</v>
+        <v>46.55212144336197</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.26051596317711</v>
+        <v>55.07549494836461</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.26051597189162</v>
+        <v>60.74786387424511</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>36.2605159333014</v>
+        <v>19.07903591939388</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.26051597151153</v>
+        <v>50.02476207725314</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.26051598348126</v>
+        <v>58.13050679319393</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.26051593953618</v>
+        <v>8.224023765225663</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.26051596402401</v>
+        <v>45.4327977229772</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.26051597168338</v>
+        <v>53.77269482990429</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.26051596986918</v>
+        <v>14.63335793537818</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.26051599694149</v>
+        <v>42.4000230237035</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.26051600540924</v>
+        <v>49.22034299091671</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.2605159777323</v>
+        <v>31.85232746621237</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.26051600142572</v>
+        <v>54.97399195007638</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.2605160088366</v>
+        <v>60.53544275882729</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.26051600105608</v>
+        <v>63.81161918163079</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.26051602657228</v>
+        <v>72.85879845514312</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.26051603494669</v>
+        <v>78.66192059051824</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.2605159951991</v>
+        <v>33.56052200711752</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.26051603246398</v>
+        <v>67.59105688695118</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.26051604411978</v>
+        <v>75.61449098797156</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.26051583315635</v>
+        <v>0.8770335592966383</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.26051585659147</v>
+        <v>31.49931165789916</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.26051586384236</v>
+        <v>37.51064798331305</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.26051586016688</v>
+        <v>9.361554801484093</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.26051588607538</v>
+        <v>30.29603122050631</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.26051589409155</v>
+        <v>34.77215232420227</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.26051586573539</v>
+        <v>20.96230003863013</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.26051588841025</v>
+        <v>38.32767880477104</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.26051589542592</v>
+        <v>41.92920941040286</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.26051589009244</v>
+        <v>43.71938698232944</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.26051591452344</v>
+        <v>50.71918241293503</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.26051592259517</v>
+        <v>54.64289132693425</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.26051588805966</v>
+        <v>17.07214120669176</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.26051592372258</v>
+        <v>43.06451392156825</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.26051593475678</v>
+        <v>48.59520077413652</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.26051587529184</v>
+        <v>0.9254616870531081</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.26051590040081</v>
+        <v>35.60928661490546</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.26051590826646</v>
+        <v>44.02200814683827</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.26051590479135</v>
+        <v>6.268483746908522</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.26051593255037</v>
+        <v>31.2737441072403</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.26051594124618</v>
+        <v>38.0540350110609</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.26051591184861</v>
+        <v>21.01555880191902</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.26051593614302</v>
+        <v>41.60740060680889</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.2605159437535</v>
+        <v>47.18263988324877</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.2605159369306</v>
+        <v>47.1626503928938</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.26051596317711</v>
+        <v>55.58680514010875</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.26051597189162</v>
+        <v>61.2034088998424</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.2605159333014</v>
+        <v>19.68328982617268</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.26051597151153</v>
+        <v>50.51515962090927</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.26051598348126</v>
+        <v>58.53904140873841</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.26051593953618</v>
+        <v>8.82958456724975</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.26051596402401</v>
+        <v>45.9870779722158</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.26051597168338</v>
+        <v>54.2541853922169</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.26051596986918</v>
+        <v>15.17038786393073</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.26051599694149</v>
+        <v>42.86192099061823</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.26051600540924</v>
+        <v>49.61211161248711</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.2605159777323</v>
+        <v>32.41521921754486</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.26051600142572</v>
+        <v>55.46992689759313</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.2605160088366</v>
+        <v>60.97010081293809</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.26051600105608</v>
+        <v>64.41138380916979</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.26051602657228</v>
+        <v>73.36928750882798</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.26051603494669</v>
+        <v>79.11337365744939</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.2605159951991</v>
+        <v>34.14146428128926</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.26051603246398</v>
+        <v>68.0887784515414</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.26051604411978</v>
+        <v>76.0301375753441</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>36.26051583922916</v>
+        <v>-6.942434841589726</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.26051586255207</v>
+        <v>22.04973161401655</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.26051587000907</v>
+        <v>28.71877964597152</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.26051586702948</v>
+        <v>0.2618546469091783</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.26051589281392</v>
+        <v>19.5339961390223</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.26051590105795</v>
+        <v>24.56629375202672</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.26051587267555</v>
+        <v>11.24145126134509</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.26051589524184</v>
+        <v>27.14218857089226</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.26051590245693</v>
+        <v>31.23609143188035</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.26051589741559</v>
+        <v>32.89154397566772</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.26051592184606</v>
+        <v>39.24149836058041</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.26051593017844</v>
+        <v>43.64195512093779</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.26051589563091</v>
+        <v>8.254737569837953</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.26051593112305</v>
+        <v>32.28355431142798</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.26051594247091</v>
+        <v>38.52070228776383</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.2605158832701</v>
+        <v>-5.462190239282211</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.26051590828708</v>
+        <v>27.72230115695019</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.26051591637851</v>
+        <v>36.81478697254899</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>36.26051591362204</v>
+        <v>-1.195487813939419</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.26051594127934</v>
+        <v>22.32412789615727</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.26051595022476</v>
+        <v>29.6425766721056</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.26051592076246</v>
+        <v>12.70180449403892</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.26051594496785</v>
+        <v>31.97346522725023</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.26051595279679</v>
+        <v>38.03290133475857</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.26051594616435</v>
+        <v>37.52556800727912</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.26051597244429</v>
+        <v>45.42108796682574</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.26051598143547</v>
+        <v>51.49043874730299</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.26051594271837</v>
+        <v>11.86577762251348</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.26051598078849</v>
+        <v>40.91986366956175</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.26051599310181</v>
+        <v>49.64216611966171</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.2605159479241</v>
+        <v>3.033416941076059</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.26051597231919</v>
+        <v>38.59266522837193</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.26051598020577</v>
+        <v>47.55588022492054</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.26051597899548</v>
+        <v>8.527189392543224</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.26051600596526</v>
+        <v>34.61628377085356</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.26051601468421</v>
+        <v>41.93896718028903</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.26051598695884</v>
+        <v>24.83248122777991</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.26051601056253</v>
+        <v>46.46470633299766</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.26051601819326</v>
+        <v>52.46889204997905</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.26051601050771</v>
+        <v>55.58697754727574</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.26051603604702</v>
+        <v>63.95206300038969</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.26051604469089</v>
+        <v>70.13186354271467</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.26051600476661</v>
+        <v>27.06982116557792</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.26051604189037</v>
+        <v>59.11207423054643</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.26051605389195</v>
+        <v>67.77853611186703</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.26051584858838</v>
+        <v>3.445338105699737</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.26051587180663</v>
+        <v>33.55348983192332</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.26051587918074</v>
+        <v>40.11582454528467</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.26051587667372</v>
+        <v>11.57373995528332</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.26051590234247</v>
+        <v>32.05055735185206</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.26051591049485</v>
+        <v>36.99004758095104</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.26051588239262</v>
+        <v>23.15694409287094</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.26051590485765</v>
+        <v>40.09349886032629</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.26051591199253</v>
+        <v>44.11304210177293</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.26051590674299</v>
+        <v>45.71024026319155</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.2605159310603</v>
+        <v>52.53773705751909</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.26051593929355</v>
+        <v>56.83895543315236</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.26051590460312</v>
+        <v>20.00407838222831</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.26051593993601</v>
+        <v>45.37643006528603</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.26051595115771</v>
+        <v>51.50511268083862</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.26051589238149</v>
+        <v>5.883522727537063</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.26051591728123</v>
+        <v>40.25052950215045</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.26051592528063</v>
+        <v>49.15413005070491</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.26051592298424</v>
+        <v>11.14427873409899</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.26051595051193</v>
+        <v>35.93627650994566</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.2605159593556</v>
+        <v>43.06792712044141</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.26051593018448</v>
+        <v>25.670887221506</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.26051595427644</v>
+        <v>46.04028992885313</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.26051596201633</v>
+        <v>51.9454011580751</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.26051595518534</v>
+        <v>51.41465758193205</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.2605159813389</v>
+        <v>59.81077810558365</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.26051599022162</v>
+        <v>65.73608555870483</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.26051595139774</v>
+        <v>24.70828375162083</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.26051598928945</v>
+        <v>55.18437862918186</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.26051600146271</v>
+        <v>63.6960767909347</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.26051595563257</v>
+        <v>12.69651947759598</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.26051597990698</v>
+        <v>49.36417388092229</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.26051598770413</v>
+        <v>58.13934291360228</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.26051598688171</v>
+        <v>19.12918653062042</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.26051601371808</v>
+        <v>46.40993601602315</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.26051602233815</v>
+        <v>53.54397988042678</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.26051599488073</v>
+        <v>35.992124931307</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.26051601836766</v>
+        <v>58.65400773400459</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.26051602591185</v>
+        <v>64.50239589674081</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.26051601804642</v>
+        <v>67.6342776227167</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.26051604345653</v>
+        <v>76.47488934209974</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.26051605199724</v>
+        <v>82.49928930469176</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.26051601201868</v>
+        <v>38.1695299743024</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.26051604895881</v>
+        <v>71.54841961048507</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36.26051606082428</v>
+        <v>80.00154960889056</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.26051584051636</v>
+        <v>3.034024821304708</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.260515863877</v>
+        <v>33.33118898391407</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.26051587109688</v>
+        <v>38.9970309074334</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.26051586801359</v>
+        <v>11.54436409988953</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.26051589383976</v>
+        <v>32.50206806355092</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.26051590182163</v>
+        <v>36.64234844630921</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.2605158736042</v>
+        <v>23.03310254728366</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.260515896207</v>
+        <v>40.45240278216139</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.26051590319265</v>
+        <v>43.78537404874363</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.26051589778643</v>
+        <v>45.6009716960837</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.26051592216916</v>
+        <v>52.68824370641958</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.26051593021448</v>
+        <v>56.36887873248359</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.26051589554512</v>
+        <v>19.43713090233416</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.2605159310947</v>
+        <v>45.34180601960514</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.2605159420817</v>
+        <v>50.50169122271509</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.26051588342079</v>
+        <v>6.209113407942283</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.26051590846507</v>
+        <v>40.59586499146825</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.26051591629223</v>
+        <v>48.46517680034528</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.26051591343783</v>
+        <v>11.94679393886864</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.26051594112532</v>
+        <v>37.01093025225391</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.26051594977856</v>
+        <v>43.23916623379314</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.26051592051373</v>
+        <v>26.50234420306801</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.26051594474554</v>
+        <v>47.19030799076387</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.26051595231877</v>
+        <v>52.31558719040157</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.26051594540031</v>
+        <v>52.43194791674551</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.26051597161113</v>
+        <v>60.98451254664451</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.26051598028959</v>
+        <v>66.22606067613027</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.26051594154166</v>
+        <v>25.46323678948411</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.26051597965333</v>
+        <v>56.2452955786057</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.26051599156447</v>
+        <v>63.66341541932972</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.2605159469491</v>
+        <v>13.37730310322804</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.26051597137207</v>
+        <v>50.06751202654637</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.2605159789934</v>
+        <v>57.7836880955154</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.26051597773294</v>
+        <v>20.06988217918613</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.26051600473355</v>
+        <v>47.6350428486728</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.26051601315924</v>
+        <v>53.82744560430194</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.26051598560771</v>
+        <v>37.01159130606036</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.26051600923837</v>
+        <v>59.99503753852886</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.26051601661244</v>
+        <v>65.03848042190815</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.26051600872735</v>
+        <v>68.58499508745848</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.26051603420577</v>
+        <v>77.60267622855547</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.26051604254403</v>
+        <v>82.92935666000926</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.26051600266204</v>
+        <v>38.96689414927991</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36.26051603982824</v>
+        <v>72.65874660582637</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.26051605142614</v>
+        <v>79.98237974068452</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.26051583500267</v>
+        <v>-6.969424160941717</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.2605158583331</v>
+        <v>21.67341482887396</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.2605158656974</v>
+        <v>27.94867641805102</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.26051586253983</v>
+        <v>0.4577191317295224</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.26051588833258</v>
+        <v>19.49791544731825</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.26051589647412</v>
+        <v>24.31869760697865</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.26051586812365</v>
+        <v>11.42520143908053</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.26051589069721</v>
+        <v>27.21005563906143</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.2605158978226</v>
+        <v>31.10434957210513</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.26051589273314</v>
+        <v>32.90731271897202</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.26051591711139</v>
+        <v>39.26102728294492</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.26051592532188</v>
+        <v>43.31240657069405</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.26051589088199</v>
+        <v>8.195237202437585</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.26051592638557</v>
+        <v>32.0101527732706</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.26051593759235</v>
+        <v>37.92901261766941</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.2605158781061</v>
+        <v>-4.310157768207116</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.26051590312403</v>
+        <v>28.44858094731965</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.2605159111092</v>
+        <v>37.16650670591338</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.26051590819805</v>
+        <v>0.2102447724164414</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.2605159358564</v>
+        <v>23.40750039001017</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.26051594468434</v>
+        <v>30.56445211664727</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.26051591527535</v>
+        <v>14.28997153299031</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.26051593948166</v>
+        <v>33.3744551325489</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.26051594720778</v>
+        <v>39.27685356217064</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.26051594059106</v>
+        <v>39.02850518263342</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.26051596680263</v>
+        <v>46.87355309559875</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.26051597565859</v>
+        <v>52.59106759338177</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.26051593711325</v>
+        <v>13.29667847540802</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.26051597518482</v>
+        <v>42.03740807356297</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.26051598733643</v>
+        <v>50.48970154571796</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.26051594276579</v>
+        <v>5.03012165090113</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.26051596716724</v>
+        <v>40.26098798639878</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.26051597494425</v>
+        <v>48.80625193136338</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.26051597365717</v>
+        <v>10.72847606498384</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.26051600063398</v>
+        <v>36.60915565797146</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.26051600923179</v>
+        <v>43.71808775848328</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.26051598154938</v>
+        <v>27.24779403968773</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.26051600515922</v>
+        <v>48.78151874343371</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.26051601268393</v>
+        <v>54.59124914239324</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.26051600505674</v>
+        <v>57.75735566375209</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.26051603053606</v>
+        <v>66.14477703743422</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.26051603904617</v>
+        <v>71.9741831957657</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.2605159993108</v>
+        <v>29.22193278331063</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.26051603644424</v>
+        <v>61.07016299444753</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.26051604827907</v>
+        <v>69.41895872156169</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.26051584360695</v>
+        <v>-5.715912315050378</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.26051586720413</v>
+        <v>24.29613564138267</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.26051587467314</v>
+        <v>30.87714338641041</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.26051587188637</v>
+        <v>1.988164825855332</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.26051589797403</v>
+        <v>22.26464391243477</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.26051590623133</v>
+        <v>27.2172961340917</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.26051587764719</v>
+        <v>13.33343994221337</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.26051590047886</v>
+        <v>30.09580342455498</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.26051590770556</v>
+        <v>34.12017653053319</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.26051590239727</v>
+        <v>35.92153551591935</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.26051592709769</v>
+        <v>42.67195810160255</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.26051593543615</v>
+        <v>46.99829277277456</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.26051590029354</v>
+        <v>10.33922750993394</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.26051593620306</v>
+        <v>35.5190359786392</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.2605159475692</v>
+        <v>41.65765841366441</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.2605158879149</v>
+        <v>-4.336214004114215</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.26051591322036</v>
+        <v>29.92562164598296</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.26051592132294</v>
+        <v>38.88766544830151</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.26051591875333</v>
+        <v>0.4238764570439351</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.26051594672957</v>
+        <v>25.0008394092771</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.2605159556873</v>
+        <v>32.19348015119554</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.26051592602014</v>
+        <v>14.7286273072069</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.26051595050466</v>
+        <v>34.90900785949452</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.26051595834439</v>
+        <v>40.85836181950692</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.26051595144183</v>
+        <v>40.5665140052067</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.26051597800605</v>
+        <v>48.87574937506741</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.26051598700312</v>
+        <v>54.85784790497516</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.26051594766954</v>
+        <v>14.00264939890057</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.26051598617867</v>
+        <v>44.27250731674735</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.26051599850896</v>
+        <v>52.84442938795301</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.26051595243082</v>
+        <v>3.286344497903986</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.26051597710358</v>
+        <v>39.90219761277685</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.26051598500084</v>
+        <v>48.74396899896215</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.26051598396298</v>
+        <v>9.226824911434232</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.26051601123974</v>
+        <v>36.3519927997152</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.26051601997048</v>
+        <v>43.55450440881886</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.26051599204521</v>
+        <v>25.93103757720679</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.26051601591755</v>
+        <v>48.45596534429961</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.26051602355862</v>
+        <v>54.35577406569416</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.26051601561365</v>
+        <v>57.69516770407935</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.26051604142683</v>
+        <v>66.4690550249927</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.26051605007717</v>
+        <v>72.56108144620026</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>36.26051600956297</v>
+        <v>28.31791326971677</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.26051604710927</v>
+        <v>61.55593237428198</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.2605160591271</v>
+        <v>70.07845250313667</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>36.26051584673043</v>
+        <v>9.158173770895772</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.26051586987956</v>
+        <v>40.13827545023981</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.26051587706041</v>
+        <v>46.10848424880122</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.2605158744583</v>
+        <v>18.55905385781267</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.26051590005063</v>
+        <v>40.00242723874997</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.26051590798935</v>
+        <v>44.50274713784982</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.26051588009009</v>
+        <v>30.54888210176711</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.26051590248824</v>
+        <v>48.40220348439011</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.26051590943613</v>
+        <v>52.02974888888379</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.26051590404005</v>
+        <v>54.04192500133649</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.26051592820295</v>
+        <v>61.32984913420816</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.26051593619855</v>
+        <v>65.12149248663964</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.26051590167368</v>
+        <v>27.26261902560352</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.26051593690138</v>
+        <v>53.79518814992092</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.26051594782898</v>
+        <v>59.35145233217764</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.2605158889932</v>
+        <v>8.423108366141339</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.26051591380643</v>
+        <v>43.51341915248537</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.2605159215866</v>
+        <v>51.75925966358498</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.26051591920739</v>
+        <v>14.77401081063289</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.26051594663944</v>
+        <v>40.35182385400503</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.26051595524075</v>
+        <v>47.00873787506389</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.26051592630768</v>
+        <v>29.74611132583329</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.26051595031593</v>
+        <v>50.88862979635651</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.26051595784371</v>
+        <v>56.36852821435167</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.26051595095657</v>
+        <v>56.59351789990657</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.26051597692607</v>
+        <v>65.35478888050918</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.26051598554562</v>
+        <v>70.744532237806</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.26051594699873</v>
+        <v>29.03255523913976</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.2605159847588</v>
+        <v>60.47660278776983</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.26051599659844</v>
+        <v>68.36638183200056</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.26051595148689</v>
+        <v>15.0504145584528</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.26051597568099</v>
+        <v>52.48502558317418</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.26051598325271</v>
+        <v>60.55553447779677</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.26051598242297</v>
+        <v>22.41040661436215</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.26051600917056</v>
+        <v>50.53420679588393</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.26051601754141</v>
+        <v>57.13477460181149</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.26051599030472</v>
+        <v>39.7390741545551</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.26051601371394</v>
+        <v>63.21592611413759</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.26051602104003</v>
+        <v>68.59752605260741</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.26051601319748</v>
+        <v>72.29453419928107</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.26051603843478</v>
+        <v>81.53842364114215</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.26051604671302</v>
+        <v>87.02481685898061</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.26051600706562</v>
+        <v>42.06794398939768</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.26051604388351</v>
+        <v>76.47092784852995</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.26051605540595</v>
+        <v>84.24627874856287</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.26051582661547</v>
+        <v>-9.075227400710173</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.26051584907103</v>
+        <v>18.81019971866056</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.26051585616189</v>
+        <v>25.11711576961913</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.26051585201188</v>
+        <v>-2.319991697884035</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.26051587683745</v>
+        <v>16.23961771689719</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.26051588467669</v>
+        <v>21.0922158644977</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.26051585728878</v>
+        <v>8.196788126851761</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.26051587901586</v>
+        <v>23.53353486544697</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.26051588587669</v>
+        <v>27.46262993302583</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.26051588107767</v>
+        <v>28.42733729396257</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.2605159045077</v>
+        <v>34.59734045399674</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.26051591240724</v>
+        <v>38.78118588889927</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.26051587965307</v>
+        <v>4.068823945502452</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.26051591382532</v>
+        <v>27.28590403480486</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.26051592461599</v>
+        <v>33.22631731333028</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.26051586713366</v>
+        <v>-8.017395561386241</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.2605158911945</v>
+        <v>23.75185805431867</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.26051589889671</v>
+        <v>32.57064859879384</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.26051589493581</v>
+        <v>-4.296542656817262</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.26051592153605</v>
+        <v>18.17825133528305</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.26051593005117</v>
+        <v>25.46168464124679</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.26051590165095</v>
+        <v>9.320218932795648</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.26051592493121</v>
+        <v>27.7520074522268</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.26051593238356</v>
+        <v>33.76229244010425</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.26051592613968</v>
+        <v>32.70583899533009</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.26051595131283</v>
+        <v>40.27356396222643</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.26051595985169</v>
+        <v>46.18439486872994</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>36.26051592317609</v>
+        <v>7.390539180030796</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.26051595979119</v>
+        <v>35.2533948525221</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.2605159715122</v>
+        <v>43.8324126995029</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.2605159302251</v>
+        <v>1.050262544006568</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.26051595369613</v>
+        <v>35.24248785625729</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.26051596120842</v>
+        <v>43.94414782388925</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.26051595889118</v>
+        <v>5.876914953475357</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.26051598483937</v>
+        <v>30.98302833919392</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.26051599314452</v>
+        <v>38.26204014393771</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.26051596639845</v>
+        <v>21.90895136862339</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.26051598910806</v>
+        <v>42.74924325494513</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.26051599637664</v>
+        <v>48.70721816174499</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.26051598916457</v>
+        <v>50.97522387814236</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.26051601364284</v>
+        <v>59.08929645184921</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.26051602186053</v>
+        <v>65.16007154883404</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.26051598399474</v>
+        <v>22.92793586362656</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.26051601971229</v>
+        <v>53.83760657600892</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.26051603114428</v>
+        <v>62.36861130244374</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>36.26051583037733</v>
+        <v>-0.4913868257131355</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.26051585327745</v>
+        <v>29.18088480054188</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.26051586034316</v>
+        <v>34.89119703551987</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.2605158563147</v>
+        <v>7.282863310252289</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.26051588163174</v>
+        <v>27.56498501577806</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.26051588944317</v>
+        <v>31.71976214325187</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.26051586167829</v>
+        <v>18.39065604053984</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.26051588383551</v>
+        <v>35.18797936030169</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.260515890672</v>
+        <v>38.52712589783484</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.26051588550317</v>
+        <v>40.00153658216031</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.26051590937166</v>
+        <v>46.75677042542267</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.26051591724102</v>
+        <v>50.5649434596007</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.26051588366088</v>
+        <v>14.11111123722682</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.26051591850964</v>
+        <v>39.27401994777401</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.26051592926203</v>
+        <v>44.4395477918347</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.2605158716263</v>
+        <v>2.107210893399238</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.26051589616338</v>
+        <v>35.74038673444939</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.2605159038325</v>
+        <v>43.78959416149871</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.26051589999891</v>
+        <v>6.961445490617187</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.26051592712567</v>
+        <v>31.20702296309521</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.2605159356042</v>
+        <v>37.61196057213379</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.26051590681973</v>
+        <v>21.23811447643132</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.26051593056079</v>
+        <v>41.17551584098177</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.26051593798113</v>
+        <v>46.44049121161558</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.26051593135477</v>
+        <v>46.19988012942977</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.2605159569987</v>
+        <v>54.34373536816608</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.26051596549991</v>
+        <v>59.81030231539955</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.2605159279472</v>
+        <v>19.48250612840376</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.26051596528703</v>
+        <v>49.35822282787423</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.26051597695768</v>
+        <v>56.95820208345663</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.26051593483632</v>
+        <v>10.11524400440928</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.26051595876942</v>
+        <v>46.16008419841494</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.26051596624053</v>
+        <v>54.08339907013168</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.26051596406209</v>
+        <v>15.89056957131664</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.26051599052114</v>
+        <v>42.75496004705746</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.26051599878075</v>
+        <v>49.14559315024877</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.26051597167901</v>
+        <v>32.65095850223872</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.2605159948357</v>
+        <v>54.99142863678293</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.26051600206443</v>
+        <v>60.19497683913019</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.26051599450201</v>
+        <v>63.33196000653858</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.26051601943798</v>
+        <v>71.99150771519538</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.26051602761031</v>
+        <v>77.57888867492049</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>36.26051598890564</v>
+        <v>33.8775331042197</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.26051602532637</v>
+        <v>66.79202403253304</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.26051603669568</v>
+        <v>74.32630891668181</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.26051582511582</v>
+        <v>-9.3555024004886</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.26051584768449</v>
+        <v>19.00378262579332</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.26051585472322</v>
+        <v>24.9125348118997</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.26051585055581</v>
+        <v>-2.327652321480663</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.2605158755064</v>
+        <v>16.54668361122148</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>36.26051588328802</v>
+        <v>20.94314837702301</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.26051585578575</v>
+        <v>8.259019108444047</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.26051587762225</v>
+        <v>23.87018500198277</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.26051588443265</v>
+        <v>27.40628184853296</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.26051587958938</v>
+        <v>29.05965187986365</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.26051590311742</v>
+        <v>35.28981785713712</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.26051591096062</v>
+        <v>39.1808049278085</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.26051587809955</v>
+        <v>4.436030548576483</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>36.2605159124439</v>
+        <v>28.04230734332782</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.26051592315526</v>
+        <v>33.47028749886094</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.26051586568106</v>
+        <v>-9.421417895802275</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.26051588986718</v>
+        <v>22.80616586836987</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.26051589750537</v>
+        <v>31.15289785411226</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.26051589354511</v>
+        <v>-5.476961419513881</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.26051592028388</v>
+        <v>17.27173545917328</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.26051592872821</v>
+        <v>24.0292450119401</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.26051590021655</v>
+        <v>8.182596152924862</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.26051592361804</v>
+        <v>26.85452029863826</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.26051593100844</v>
+        <v>32.4127218600016</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.26051592473155</v>
+        <v>32.28917120396351</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.26051595001285</v>
+        <v>39.88023169597045</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.26051595848273</v>
+        <v>45.47098998704419</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.26051592169898</v>
+        <v>6.826597653451472</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.26051595850474</v>
+        <v>35.04221922163092</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.26051597012832</v>
+        <v>43.02520188395523</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.26051592898386</v>
+        <v>0.5359625568832413</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.26051595258011</v>
+        <v>35.26494617941788</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.26051596001741</v>
+        <v>43.46115090785239</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.26051595774629</v>
+        <v>5.500584034708137</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.26051598383292</v>
+        <v>30.9660977964882</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.26051599205517</v>
+        <v>37.68904300777284</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.26051596521988</v>
+        <v>21.68803736685933</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.26051598805063</v>
+        <v>42.84259520907278</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.26051599524667</v>
+        <v>48.32244783409023</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.260515988033</v>
+        <v>51.50649524800427</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.26051601261956</v>
+        <v>59.64964571463534</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.26051602075732</v>
+        <v>65.37340240259518</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.26051598279927</v>
+        <v>23.20750743657634</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.26051601870737</v>
+        <v>54.56361433592916</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>36.26051603002526</v>
+        <v>62.46080218359533</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>36.2605158214188</v>
+        <v>-15.48508755507888</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>36.26051584335354</v>
+        <v>11.57433615477093</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>36.26051585018287</v>
+        <v>17.22308730832952</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>36.26051584560631</v>
+        <v>-9.399158245040258</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>36.26051586985608</v>
+        <v>8.458782798944402</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>36.26051587740619</v>
+        <v>12.58805648897609</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>36.26051585059268</v>
+        <v>0.4640649555403442</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.26051587181583</v>
+        <v>15.19906516907776</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.26051587842361</v>
+        <v>18.51516810549311</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.26051587380096</v>
+        <v>20.06916025449813</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.2605158966634</v>
+        <v>25.91601002737718</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.26051590427812</v>
+        <v>29.71988531908266</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>36.26051587256359</v>
+        <v>-3.38305093130651</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.26051590594326</v>
+        <v>18.99367820128452</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.26051591633594</v>
+        <v>24.11574561001522</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>36.26051586091824</v>
+        <v>-14.1670704066667</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.26051588442709</v>
+        <v>16.63241035466487</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.26051589184279</v>
+        <v>24.66317007396324</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.26051588746866</v>
+        <v>-10.997433939966</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.26051591345868</v>
+        <v>10.60022729212307</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>36.26051592165704</v>
+        <v>17.04487235027702</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.26051589385961</v>
+        <v>1.913426213262266</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.26051591660581</v>
+        <v>19.59974182983626</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>36.26051592378093</v>
+        <v>24.89678303418041</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26051591776292</v>
+        <v>24.75914505002057</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.26051594233144</v>
+        <v>31.91872125964218</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.2605159505601</v>
+        <v>37.39182797866125</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.26051591502011</v>
+        <v>0.4677554954485252</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.26051595079522</v>
+        <v>27.29484554774098</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.26051596208021</v>
+        <v>34.92210428629833</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.26051592307921</v>
+        <v>-3.753377855436472</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.26051594601895</v>
+        <v>29.4968908788325</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.26051595324264</v>
+        <v>37.40340687517565</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.2605159505551</v>
+        <v>0.3800329681463168</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.26051597591594</v>
+        <v>24.63937221192047</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.26051598390202</v>
+        <v>31.0712829820943</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.26051595773801</v>
+        <v>15.81092870734124</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.26051597993355</v>
+        <v>35.93012909260337</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.2605159869229</v>
+        <v>41.16863313831669</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.26051597999206</v>
+        <v>44.22015943430095</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.26051600389225</v>
+        <v>51.92164145856203</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.26051601180092</v>
+        <v>57.52660762445362</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.26051597509009</v>
+        <v>17.12867006306663</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.26051600999914</v>
+        <v>47.03155819631981</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.26051602099195</v>
+        <v>54.59757138783574</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.26051584042362</v>
+        <v>-3.164677753501753</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.26051586400335</v>
+        <v>26.41281895755033</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.26051587155575</v>
+        <v>33.23419748744587</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>36.26051586872609</v>
+        <v>4.374013303819016</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.26051589479446</v>
+        <v>24.10592432951106</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.26051590314394</v>
+        <v>29.31887212911641</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.260515874483</v>
+        <v>15.80272776266331</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.26051589729777</v>
+        <v>32.10056294865263</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.26051590460516</v>
+        <v>36.34082069648218</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.26051589947976</v>
+        <v>37.94677809796652</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.26051592417758</v>
+        <v>44.48300466371965</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.2605159326114</v>
+        <v>48.93230098764242</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.26051589760128</v>
+        <v>12.67791558867422</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.26051593348425</v>
+        <v>37.27038795476894</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.26051594497726</v>
+        <v>43.70337267224711</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.26051588484646</v>
+        <v>-2.847680066880454</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.2605159101367</v>
+        <v>30.96550347410116</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.26051591833051</v>
+        <v>40.25281833348066</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.26051591572814</v>
+        <v>1.601860859798901</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.26051594368756</v>
+        <v>25.62823684113618</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.26051595274615</v>
+        <v>33.16914546685089</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.26051592299576</v>
+        <v>15.97930002247873</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.26051594746556</v>
+        <v>35.68504062248579</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.26051595539355</v>
+        <v>41.92675549868999</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.26051594866522</v>
+        <v>41.32551412275986</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.26051597522986</v>
+        <v>49.42456895693238</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.26051598432942</v>
+        <v>55.56014289289052</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>36.2605159451128</v>
+        <v>15.03706040607132</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.26051598359878</v>
+        <v>44.71081436926767</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.26051599606789</v>
+        <v>53.6741286735928</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.26051595001559</v>
+        <v>5.455980898545487</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.26051597467592</v>
+        <v>41.67877112452</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.26051598266307</v>
+        <v>50.82622619814123</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.26051598160983</v>
+        <v>11.17683298247985</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.26051600887285</v>
+        <v>37.8112174075662</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.26051601770297</v>
+        <v>45.34651734359477</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.26051598970214</v>
+        <v>27.95997781141345</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.26051601356246</v>
+        <v>50.06070183860061</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.26051602129049</v>
+        <v>56.23858868608554</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.26051601349442</v>
+        <v>59.30498275207296</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.26051603930811</v>
+        <v>67.8904960054534</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.26051604805769</v>
+        <v>74.14586177047784</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>36.26051600762813</v>
+        <v>30.14879508202497</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.26051604515552</v>
+        <v>62.85480974394291</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.26051605731013</v>
+        <v>71.75304053209889</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.26051582991792</v>
+        <v>0.6486119345171097</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.26051585254935</v>
+        <v>29.64772094495151</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.26051585960442</v>
+        <v>35.66839016179208</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.26051585555836</v>
+        <v>8.439316537782002</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.26051588057834</v>
+        <v>28.09027522450831</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.26051588837801</v>
+        <v>32.61253803609377</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.2605158608931</v>
+        <v>19.37566313331396</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.26051588279034</v>
+        <v>35.63648724121985</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.26051588961653</v>
+        <v>39.28382449375842</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.26051588459654</v>
+        <v>40.47728727719623</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.26051590818736</v>
+        <v>47.01452008877357</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.26051591604192</v>
+        <v>51.01927606114808</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>36.26051588290462</v>
+        <v>15.13840882792871</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.26051591734449</v>
+        <v>39.59267368223536</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.26051592808069</v>
+        <v>45.16307371819945</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.26051587033709</v>
+        <v>-0.195755366572218</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.26051589457872</v>
+        <v>32.65693835706122</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.26051590223958</v>
+        <v>41.10691985686786</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.26051589836813</v>
+        <v>4.450407544803177</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.26051592516825</v>
+        <v>27.96882515229509</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.26051593363766</v>
+        <v>34.83724092940435</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.26051590514395</v>
+        <v>18.44531969317957</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.26051592859914</v>
+        <v>37.76263855487706</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.26051593601148</v>
+        <v>43.41711416869165</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.26051592955367</v>
+        <v>42.78613208595838</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.26051595489157</v>
+        <v>50.6833228181352</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.26051596338057</v>
+        <v>56.39267751481447</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.26051592632584</v>
+        <v>16.6248465227895</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.26051596321605</v>
+        <v>45.67777331134452</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.26051597487414</v>
+        <v>53.79080219133945</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.26051593306608</v>
+        <v>7.712957821412058</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.26051595670958</v>
+        <v>42.97149843968201</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.26051596417598</v>
+        <v>51.29872473988745</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.26051596194588</v>
+        <v>13.32319762809001</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.26051598808475</v>
+        <v>39.45430729316079</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.26051599633917</v>
+        <v>46.30843439872559</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.2605159695084</v>
+        <v>29.74460527189034</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.26051599238487</v>
+        <v>51.45861458270924</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.26051599960905</v>
+        <v>57.05328437768279</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.26051599221319</v>
+        <v>59.76004821957295</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.26051601684898</v>
+        <v>68.18758804020598</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.26051602501332</v>
+        <v>74.04558434641694</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.26051598680503</v>
+        <v>30.87712788532474</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.26051602278504</v>
+        <v>62.95858971052461</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.2605160341472</v>
+        <v>71.01138272632494</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.26051584919644</v>
+        <v>7.04240257436064</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.2605158727797</v>
+        <v>38.08477985757145</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.2605158802655</v>
+        <v>44.84110938527544</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.26051587789678</v>
+        <v>15.91438929208672</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.26051590396904</v>
+        <v>37.13228751902452</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.26051591224491</v>
+        <v>42.27673006616476</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.26051588373723</v>
+        <v>27.96554458485124</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.26051590655541</v>
+        <v>45.54331661020218</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.26051591379836</v>
+        <v>49.73035536880609</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.26051590843604</v>
+        <v>51.4032711647048</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.26051593312879</v>
+        <v>58.53722302769096</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.26051594148223</v>
+        <v>62.91001926653014</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.26051590618215</v>
+        <v>24.89853945281106</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.26051594207048</v>
+        <v>51.17768261330032</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.26051595346215</v>
+        <v>57.53678753770932</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.26051589345046</v>
+        <v>7.120480333308176</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.26051591873876</v>
+        <v>42.47550864113403</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.26051592685656</v>
+        <v>51.62758840442896</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.26051592470129</v>
+        <v>12.94068699194</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.26051595265857</v>
+        <v>38.52867072157827</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.26051596163312</v>
+        <v>45.91908722275399</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.26051593204426</v>
+        <v>27.91552575646038</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.26051595651218</v>
+        <v>48.97022813147426</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.26051596436663</v>
+        <v>55.08860043228945</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.26051595740861</v>
+        <v>54.60717960638699</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.26051598396232</v>
+        <v>63.33464995046096</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.26051599297194</v>
+        <v>69.37016279466602</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.26051595349023</v>
+        <v>27.13970999199855</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.26051599197326</v>
+        <v>58.59146893899504</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.2605160043267</v>
+        <v>67.39153424417599</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.26051595745649</v>
+        <v>13.78019608258005</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.26051598210861</v>
+        <v>51.47214518327498</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.26051599001853</v>
+        <v>60.4795639310938</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.26051598935506</v>
+        <v>20.79130125825963</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.260516016609</v>
+        <v>48.90860917566967</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.26051602535374</v>
+        <v>56.28664252411298</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.26051599750386</v>
+        <v>38.11700869707427</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.26051602135623</v>
+        <v>61.50079282998331</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.26051602900954</v>
+        <v>67.55007072630195</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.26051602100853</v>
+        <v>70.78700368549835</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.26051604680524</v>
+        <v>79.96891984178275</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.26051605546573</v>
+        <v>86.10994293034435</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.26051601482524</v>
+        <v>40.53384386073049</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.26051605234014</v>
+        <v>74.93436988806498</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.26051606437722</v>
+        <v>83.66045655734472</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.26051584769844</v>
+        <v>3.401188936106749</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.2605158706078</v>
+        <v>32.66397374531306</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.2605158779406</v>
+        <v>39.3124596706255</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.26051587547489</v>
+        <v>11.4388315980538</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.26051590080213</v>
+        <v>31.14825042331689</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.26051590890884</v>
+        <v>36.20214532573608</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.26051588110047</v>
+        <v>22.64263103097646</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.26051590326662</v>
+        <v>38.926472460257</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.26051591036153</v>
+        <v>43.04346226629361</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.26051590530928</v>
+        <v>44.50188675849722</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.26051592931805</v>
+        <v>51.00557733576328</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.26051593750956</v>
+        <v>55.3614894437067</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.26051590335375</v>
+        <v>19.5210494937988</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.26051593821655</v>
+        <v>43.99747701421479</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.2605159493754</v>
+        <v>50.2568720329275</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.26051589114498</v>
+        <v>4.568032144717222</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.26051591571791</v>
+        <v>37.9930241339022</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.26051592367248</v>
+        <v>46.98467032440837</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.26051592142064</v>
+        <v>9.70658977011912</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.26051594858703</v>
+        <v>33.64014313946968</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.26051595738113</v>
+        <v>40.88507039536278</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.26051592851105</v>
+        <v>23.73704525731001</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.2605159522868</v>
+        <v>43.37594018772884</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.26051595998332</v>
+        <v>49.37922299541705</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.26051595335655</v>
+        <v>48.66238563366477</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.26051597918298</v>
+        <v>56.69886195028755</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.26051598801956</v>
+        <v>62.67331007688929</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.26051594976494</v>
+        <v>22.68309907520069</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.26051598715932</v>
+        <v>52.15295599235768</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.26051599926436</v>
+        <v>60.7966510426706</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.26051595403663</v>
+        <v>11.45922629371881</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.26051597799366</v>
+        <v>47.1585488232276</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.26051598574701</v>
+        <v>56.02015008504532</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.26051598495434</v>
+        <v>17.79214498402449</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.26051601143983</v>
+        <v>44.18588454413801</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.26051602001149</v>
+        <v>51.43139844867381</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.26051599284256</v>
+        <v>34.12175053779235</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.26051601602239</v>
+        <v>56.02599531358665</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.26051602352422</v>
+        <v>61.97126477623688</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.26051601585878</v>
+        <v>64.89673372702066</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.26051604095084</v>
+        <v>73.36825016871163</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.26051604944644</v>
+        <v>79.44516477268128</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.2605160100301</v>
+        <v>36.16888230156721</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.26051604648723</v>
+        <v>68.50608623361718</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>36.26051605828607</v>
+        <v>77.09056529490816</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.26051583337529</v>
+        <v>0.823372976491175</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.26051585708322</v>
+        <v>31.47508178914017</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.26051586452424</v>
+        <v>37.96160943505745</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.26051586087763</v>
+        <v>9.077774619372914</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.26051588708773</v>
+        <v>29.99256921501578</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.2605158953141</v>
+        <v>34.91838234808387</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.26051586658491</v>
+        <v>20.80505339927031</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.26051588952373</v>
+        <v>38.11988769157707</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.26051589672336</v>
+        <v>42.10931428295618</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.26051589140324</v>
+        <v>43.38559267869141</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.2605159161538</v>
+        <v>50.36622869347403</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.26051592444347</v>
+        <v>54.62833860388778</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.26051588945321</v>
+        <v>16.66579924277266</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.26051592553127</v>
+        <v>42.62433513170061</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.26051593685481</v>
+        <v>48.68801025157727</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.2605158763981</v>
+        <v>-0.07750030296179489</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.26051590179944</v>
+        <v>34.67527686218762</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.26051590987753</v>
+        <v>43.63445866701348</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.26051590641659</v>
+        <v>4.934909246575611</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.26051593449882</v>
+        <v>29.98030596342134</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.2605159434295</v>
+        <v>37.26780070324757</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.26051591363374</v>
+        <v>19.74677083261857</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.26051593821102</v>
+        <v>40.33387409060458</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.26051594602706</v>
+        <v>46.34648607259516</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.26051593916656</v>
+        <v>45.60831788872147</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.26051596575882</v>
+        <v>54.05502763857177</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.26051597471411</v>
+        <v>60.0408887927997</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.26051593558736</v>
+        <v>18.00727387677276</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.2605159742424</v>
+        <v>48.86767611359026</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.26051598653542</v>
+        <v>57.49393330256163</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.26051594159963</v>
+        <v>7.101663796157734</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.2605159663694</v>
+        <v>44.27500593533257</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.26051597424516</v>
+        <v>53.11516392838095</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.2605159724188</v>
+        <v>13.21273285780529</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.26051599980281</v>
+        <v>40.88570444314918</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.2605160085098</v>
+        <v>48.17068811240797</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.26051598045203</v>
+        <v>30.45576948611989</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.26051600441824</v>
+        <v>53.45852949305893</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.2605160120385</v>
+        <v>59.41686860117331</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.26051600416648</v>
+        <v>62.26468936587146</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>36.26051603001449</v>
+        <v>71.2249511855328</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.26051603862943</v>
+        <v>77.35901922563312</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.26051599830598</v>
+        <v>31.89628112895033</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.26051603599992</v>
+        <v>65.81006023462173</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.26051604798504</v>
+        <v>74.38424783241054</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.26051584006746</v>
+        <v>-5.477738100705746</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.26051586268519</v>
+        <v>22.75248979014436</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.26051586995678</v>
+        <v>29.30396060107935</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.26051586695596</v>
+        <v>1.496957240426763</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.26051589196079</v>
+        <v>20.27088244571915</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.26051589999984</v>
+        <v>25.30701862163878</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.26051587241657</v>
+        <v>12.4006045807137</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.26051589430055</v>
+        <v>27.90968100667282</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.26051590133625</v>
+        <v>31.9965109241075</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.2605158964459</v>
+        <v>33.32172321437927</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.260515920136</v>
+        <v>39.4727706262973</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.26051592826131</v>
+        <v>43.76377813919299</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.26051589477436</v>
+        <v>8.966396703607174</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.26051592919337</v>
+        <v>32.38791918764677</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.26051594025908</v>
+        <v>38.58600984435594</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.2605158827872</v>
+        <v>-3.013458670791071</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.26051590704957</v>
+        <v>29.35396425481899</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.26051591494123</v>
+        <v>38.35504316338634</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.26051591217547</v>
+        <v>1.121724544366792</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.26051593899852</v>
+        <v>24.09251746953906</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.26051594772308</v>
+        <v>31.4566856541891</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.26051591909068</v>
+        <v>14.96191178855978</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.26051594256594</v>
+        <v>33.80357474342956</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.26051595020159</v>
+        <v>39.89281047516926</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.26051594377341</v>
+        <v>39.00338571660455</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.26051596925851</v>
+        <v>46.69432022661835</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.26051597802733</v>
+        <v>52.64662976854768</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.2605159404922</v>
+        <v>13.58201221320135</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.26051597741397</v>
+        <v>41.9671231783831</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.26051598942328</v>
+        <v>50.69646873988593</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.26051594580326</v>
+        <v>5.234453463518669</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.26051596946688</v>
+        <v>39.95314106738651</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.26051597715989</v>
+        <v>48.83077018947616</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.26051597590511</v>
+        <v>10.59324048264864</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.26051600206623</v>
+        <v>36.11562404132759</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.26051601057117</v>
+        <v>43.48296355436871</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.26051598361938</v>
+        <v>26.74720115688984</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.26051600651533</v>
+        <v>47.92765123811414</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.26051601395877</v>
+        <v>53.96365481756413</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.26051600649496</v>
+        <v>56.55442712814463</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.26051603126647</v>
+        <v>64.74183369452329</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>36.26051603969748</v>
+        <v>70.82798373779895</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.26051600097369</v>
+        <v>28.39418637255342</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.26051603698433</v>
+        <v>59.74285766249977</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.26051604869134</v>
+        <v>68.42338734566846</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.2605158474959</v>
+        <v>0.7113699099051694</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.26051587027295</v>
+        <v>29.61880703641296</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.2605158775887</v>
+        <v>36.35211957511002</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>36.26051587513045</v>
+        <v>8.473775927177503</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.26051590031143</v>
+        <v>27.84438707740132</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.26051590839929</v>
+        <v>32.99421094231068</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.26051588072461</v>
+        <v>19.53244733161272</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.26051590276275</v>
+        <v>35.5293958925449</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.26051590984116</v>
+        <v>39.72863209674204</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.2605159048565</v>
+        <v>41.17155555504253</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.26051592873198</v>
+        <v>47.56950026450883</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.26051593690499</v>
+        <v>51.974308489058</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.2605159029645</v>
+        <v>16.53518515589851</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.26051593762597</v>
+        <v>40.6291053308217</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.26051594875887</v>
+        <v>46.99380172040239</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.26051589072811</v>
+        <v>1.632394783469078</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.26051591515986</v>
+        <v>34.69113241229012</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.26051592309659</v>
+        <v>43.8012604932734</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.26051592085265</v>
+        <v>6.496692336980878</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.26051594786296</v>
+        <v>30.08401376492776</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.26051595663734</v>
+        <v>37.46145311360992</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.26051592790439</v>
+        <v>20.36498017133395</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.26051595154355</v>
+        <v>39.71075272653216</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.26051595922279</v>
+        <v>45.8277562519564</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.26051595266961</v>
+        <v>45.05098025114482</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.26051597835339</v>
+        <v>52.98525883574541</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.26051598717041</v>
+        <v>59.02209287202599</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.2605159491498</v>
+        <v>19.39418305063316</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.26051598632935</v>
+        <v>48.47170718734897</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.26051599840724</v>
+        <v>57.26159169321298</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.26051595340518</v>
+        <v>8.792001108754661</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.2605159772248</v>
+        <v>44.13093708987947</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.26051598496142</v>
+        <v>53.11278199954647</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.26051598417138</v>
+        <v>14.87265872269516</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.26051601050496</v>
+        <v>40.92614357869871</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.26051601905812</v>
+        <v>48.30699563567296</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>36.26051599201827</v>
+        <v>31.03624682654578</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.26051601506516</v>
+        <v>52.65152886907877</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.26051602255079</v>
+        <v>58.71288434345833</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.26051601495846</v>
+        <v>61.56133338462391</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.2605160399116</v>
+        <v>69.93596566236928</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.26051604838898</v>
+        <v>76.07988909427399</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.26051600920607</v>
+        <v>33.15000842518603</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.2605160454541</v>
+        <v>65.10022946558038</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.26051605722747</v>
+        <v>73.83473803514227</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.26051583997633</v>
+        <v>4.832578974388035</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.2605158634726</v>
+        <v>34.49271913553419</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.2605158709335</v>
+        <v>40.83345789993013</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>36.26051586817812</v>
+        <v>13.41571102179921</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.26051589415422</v>
+        <v>33.42819097206964</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.26051590240256</v>
+        <v>38.27929524018553</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.26051587386273</v>
+        <v>24.84204074122357</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.26051589659675</v>
+        <v>41.43733408104065</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.26051590381562</v>
+        <v>45.35871192289908</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.26051589866363</v>
+        <v>46.96436549369961</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.26051592324669</v>
+        <v>53.52281657865957</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.26051593157143</v>
+        <v>57.63622384160665</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.26051589670776</v>
+        <v>21.23967457726226</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.26051593246372</v>
+        <v>46.12050657824564</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>36.26051594381751</v>
+        <v>52.10657747435556</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.26051588392428</v>
+        <v>4.943772980334522</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.260515909124</v>
+        <v>38.68021650721843</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.26051591721361</v>
+        <v>47.36291368598445</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.26051591469522</v>
+        <v>10.44604250459877</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.26051594255456</v>
+        <v>34.57742195793638</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.26051595149796</v>
+        <v>41.63322078714674</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.26051592188215</v>
+        <v>24.83279459080751</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.26051594626436</v>
+        <v>44.69236246163996</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.26051595409154</v>
+        <v>50.51265109568493</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.26051594736676</v>
+        <v>50.12212915275912</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.2605159738047</v>
+        <v>58.13088329264473</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.26051598278234</v>
+        <v>63.86554654217804</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.26051594375396</v>
+        <v>23.48000128914372</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.26051598210218</v>
+        <v>53.24019054314744</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>36.26051599441272</v>
+        <v>61.61961055575496</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.26051594870928</v>
+        <v>11.92026814347277</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.26051597328274</v>
+        <v>48.02115932563034</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.26051598116384</v>
+        <v>56.53829201148935</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.26051598020808</v>
+        <v>18.55117469889345</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.26051600737507</v>
+        <v>45.24801592614436</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.26051601608795</v>
+        <v>52.26039148625253</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.26051598821393</v>
+        <v>35.29364827736822</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.26051601199021</v>
+        <v>57.50537404553282</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.26051601961564</v>
+        <v>63.23537339120831</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.26051601185168</v>
+        <v>66.40432843832913</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.26051603754435</v>
+        <v>74.89365954241789</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.26051604617286</v>
+        <v>80.73435727914134</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.26051600595245</v>
+        <v>37.0243976690932</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.26051604334766</v>
+        <v>69.76521793149722</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>36.26051605534089</v>
+        <v>78.04356003048696</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.26051583735092</v>
+        <v>1.97062406671321</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.26051586108559</v>
+        <v>32.7459906438328</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.26051586855444</v>
+        <v>39.25961427901444</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>36.26051586523622</v>
+        <v>10.37420188222502</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.26051589147588</v>
+        <v>31.42462923445943</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.26051589973301</v>
+        <v>36.38137724079637</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.2605158709977</v>
+        <v>22.13503314107488</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.26051589396238</v>
+        <v>39.57065009701962</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.26051590118893</v>
+        <v>43.58673338672131</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.26051589584456</v>
+        <v>44.79410989816389</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.26051592063956</v>
+        <v>51.80356027540481</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.26051592896152</v>
+        <v>56.09627240908549</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.26051589380142</v>
+        <v>17.9801177711037</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.26051592992016</v>
+        <v>44.08386153098039</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.26051594128604</v>
+        <v>50.18871997374801</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.26051588064198</v>
+        <v>0.8190684542863131</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.26051590607447</v>
+        <v>35.70219120839487</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.26051591418093</v>
+        <v>44.68122563334989</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.26051591104505</v>
+        <v>5.990421344810297</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.26051593916173</v>
+        <v>31.18297164624592</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.26051594812376</v>
+        <v>38.48715660015764</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.26051591831661</v>
+        <v>20.79511936543273</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.26051594292404</v>
+        <v>41.51234529542518</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.26051595076753</v>
+        <v>47.54188672488353</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.26051594386996</v>
+        <v>46.70683062232016</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.26051597051329</v>
+        <v>55.18646090108112</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>36.26051597950043</v>
+        <v>61.1978166594706</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.26051594019099</v>
+        <v>19.01482245683648</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.26051597889345</v>
+        <v>50.03147274892713</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.26051599122963</v>
+        <v>58.68544335990086</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.26051594559855</v>
+        <v>7.512381738222292</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.2605159703954</v>
+        <v>44.77659830191077</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.2605159782994</v>
+        <v>53.64550661347393</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.26051597676053</v>
+        <v>13.77915201978799</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.26051600417448</v>
+        <v>41.55711460886984</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.26051601291267</v>
+        <v>48.86926188521733</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.26051598484396</v>
+        <v>30.98291811997092</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.26051600883636</v>
+        <v>54.07881504117125</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.26051601648395</v>
+        <v>60.0624123363627</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>36.26051600856442</v>
+        <v>62.83508321762346</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.26051603445716</v>
+        <v>71.80523238277571</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.2605160431031</v>
+        <v>77.96963413067826</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.26051600260635</v>
+        <v>32.40114348504444</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.26051604034149</v>
+        <v>66.42387053048644</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.26051605236958</v>
+        <v>75.03671637921313</v>
       </c>
     </row>
   </sheetData>
